--- a/src/exso/Files/ReportsInfo.xlsx
+++ b/src/exso/Files/ReportsInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\Admie-Desktop\exso\src\exso\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.natsikas\Desktop\Admie-Desktop\exso\src\exso\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A26A29B-1103-40E1-9913-4B29302DB7BC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B47CEA3-3FB3-4B40-AE0D-49E0AFC096E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Parse Settings'!$A$1:$F$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Read Settings'!$A$1:$H$76</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -751,19 +763,10 @@
     </comment>
     <comment ref="A20" authorId="1" shapeId="0" xr:uid="{D125AC30-4B70-4B9E-BF83-3DD2FAF1754D}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     one of the files is .xls instead of xlsx, so I add ad-hoc eligibiltiy file to include it (somewhere in April 2021)</t>
-        </r>
       </text>
     </comment>
     <comment ref="E98" authorId="0" shapeId="0" xr:uid="{F0F1C47D-4F5B-4B9D-9AD3-8B6711A5850E}">
@@ -1020,19 +1023,10 @@
     </comment>
     <comment ref="F2" authorId="1" shapeId="0" xr:uid="{9954997E-FE91-4A98-940C-46F8F94F700E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     not really, but will be handled in the Parsers</t>
-        </r>
       </text>
     </comment>
     <comment ref="E26" authorId="0" shapeId="0" xr:uid="{C165D3FC-00A9-4540-AF8C-5B218DA01CBE}">
@@ -1103,36 +1097,18 @@
     </comment>
     <comment ref="E89" authorId="2" shapeId="0" xr:uid="{C40E5BBA-8535-41A3-90E8-3B8469C6238D}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     SYSTEM SCADA IS EET. I know it fom inside</t>
-        </r>
       </text>
     </comment>
     <comment ref="E90" authorId="3" shapeId="0" xr:uid="{1EAC3B27-A1A4-4877-BCC3-D0F826980256}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     SYSTEM SCADA IS EET. I know it fom inside</t>
-        </r>
       </text>
     </comment>
     <comment ref="E93" authorId="0" shapeId="0" xr:uid="{587BE131-561E-4065-AB0B-6DB901C9B2DF}">
@@ -1163,19 +1139,10 @@
     </comment>
     <comment ref="E98" authorId="4" shapeId="0" xr:uid="{CF4C0D3B-5669-4C09-AB25-32B5B39E7391}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     SYSTEM SCADA IS EET. I know it fom inside</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -1183,7 +1150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="313">
   <si>
     <t>AdhocISPResults</t>
   </si>
@@ -2123,6 +2090,9 @@
   </si>
   <si>
     <t>ISPForecasts</t>
+  </si>
+  <si>
+    <t>ISPResults.csv</t>
   </si>
 </sst>
 </file>
@@ -2702,7 +2672,35 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="514">
+  <dxfs count="518">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6644,7 +6642,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D71" sqref="D71:D72"/>
     </sheetView>
   </sheetViews>
@@ -10089,739 +10087,739 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K108" xr:uid="{8D662490-7F15-44D9-82E3-9F132913C8FA}"/>
-  <sortState ref="A2:J108">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J108">
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="B2:B113">
-    <cfRule type="expression" dxfId="513" priority="270">
+    <cfRule type="expression" dxfId="517" priority="270">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B113">
-    <cfRule type="expression" dxfId="512" priority="271">
+    <cfRule type="expression" dxfId="516" priority="271">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="511" priority="269">
+    <cfRule type="expression" dxfId="515" priority="269">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="510" priority="268">
+    <cfRule type="expression" dxfId="514" priority="268">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="509" priority="267">
+    <cfRule type="expression" dxfId="513" priority="267">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="508" priority="266">
+    <cfRule type="expression" dxfId="512" priority="266">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="expression" dxfId="507" priority="265">
+    <cfRule type="expression" dxfId="511" priority="265">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="expression" dxfId="506" priority="264">
+    <cfRule type="expression" dxfId="510" priority="264">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:B105">
-    <cfRule type="expression" dxfId="505" priority="263">
+    <cfRule type="expression" dxfId="509" priority="263">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B81">
-    <cfRule type="expression" dxfId="504" priority="262">
+    <cfRule type="expression" dxfId="508" priority="262">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="expression" dxfId="503" priority="261">
+    <cfRule type="expression" dxfId="507" priority="261">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="502" priority="260">
+    <cfRule type="expression" dxfId="506" priority="260">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="501" priority="259">
+    <cfRule type="expression" dxfId="505" priority="259">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="500" priority="258">
+    <cfRule type="expression" dxfId="504" priority="258">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="expression" dxfId="499" priority="257">
+    <cfRule type="expression" dxfId="503" priority="257">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F79 E112:F113 E82:F106">
-    <cfRule type="expression" dxfId="498" priority="200">
+    <cfRule type="expression" dxfId="502" priority="200">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F79 E112:F113 E82:F106">
-    <cfRule type="expression" dxfId="497" priority="201">
+    <cfRule type="expression" dxfId="501" priority="201">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:F80">
-    <cfRule type="expression" dxfId="496" priority="198">
+    <cfRule type="expression" dxfId="500" priority="198">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:F80">
-    <cfRule type="expression" dxfId="495" priority="199">
+    <cfRule type="expression" dxfId="499" priority="199">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81">
-    <cfRule type="expression" dxfId="494" priority="196">
+    <cfRule type="expression" dxfId="498" priority="196">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81">
-    <cfRule type="expression" dxfId="493" priority="197">
+    <cfRule type="expression" dxfId="497" priority="197">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="expression" dxfId="492" priority="194">
+    <cfRule type="expression" dxfId="496" priority="194">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="expression" dxfId="491" priority="195">
+    <cfRule type="expression" dxfId="495" priority="195">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107:F112">
-    <cfRule type="expression" dxfId="490" priority="192">
+    <cfRule type="expression" dxfId="494" priority="192">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107:F112">
-    <cfRule type="expression" dxfId="489" priority="193">
+    <cfRule type="expression" dxfId="493" priority="193">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A113">
-    <cfRule type="expression" dxfId="488" priority="124">
+    <cfRule type="expression" dxfId="492" priority="124">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A113">
-    <cfRule type="expression" dxfId="487" priority="125">
+    <cfRule type="expression" dxfId="491" priority="125">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="486" priority="123">
+    <cfRule type="expression" dxfId="490" priority="123">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" dxfId="485" priority="122">
+    <cfRule type="expression" dxfId="489" priority="122">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="expression" dxfId="484" priority="121">
+    <cfRule type="expression" dxfId="488" priority="121">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="483" priority="120">
+    <cfRule type="expression" dxfId="487" priority="120">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="expression" dxfId="482" priority="119">
+    <cfRule type="expression" dxfId="486" priority="119">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="expression" dxfId="481" priority="118">
+    <cfRule type="expression" dxfId="485" priority="118">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:A105">
-    <cfRule type="expression" dxfId="480" priority="117">
+    <cfRule type="expression" dxfId="484" priority="117">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:A81">
-    <cfRule type="expression" dxfId="479" priority="116">
+    <cfRule type="expression" dxfId="483" priority="116">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="expression" dxfId="478" priority="115">
+    <cfRule type="expression" dxfId="482" priority="115">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" dxfId="477" priority="114">
+    <cfRule type="expression" dxfId="481" priority="114">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="expression" dxfId="476" priority="113">
+    <cfRule type="expression" dxfId="480" priority="113">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="475" priority="112">
+    <cfRule type="expression" dxfId="479" priority="112">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="expression" dxfId="474" priority="111">
+    <cfRule type="expression" dxfId="478" priority="111">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C113">
-    <cfRule type="expression" dxfId="473" priority="109">
+    <cfRule type="expression" dxfId="477" priority="109">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C113">
-    <cfRule type="expression" dxfId="472" priority="110">
+    <cfRule type="expression" dxfId="476" priority="110">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78">
-    <cfRule type="expression" dxfId="471" priority="108">
+    <cfRule type="expression" dxfId="475" priority="108">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="expression" dxfId="470" priority="107">
+    <cfRule type="expression" dxfId="474" priority="107">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="469" priority="106">
+    <cfRule type="expression" dxfId="473" priority="106">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="468" priority="105">
+    <cfRule type="expression" dxfId="472" priority="105">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="expression" dxfId="467" priority="104">
+    <cfRule type="expression" dxfId="471" priority="104">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="466" priority="103">
+    <cfRule type="expression" dxfId="470" priority="103">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:C105">
-    <cfRule type="expression" dxfId="465" priority="102">
+    <cfRule type="expression" dxfId="469" priority="102">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C81">
-    <cfRule type="expression" dxfId="464" priority="101">
+    <cfRule type="expression" dxfId="468" priority="101">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="463" priority="100">
+    <cfRule type="expression" dxfId="467" priority="100">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="expression" dxfId="462" priority="99">
+    <cfRule type="expression" dxfId="466" priority="99">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="461" priority="98">
+    <cfRule type="expression" dxfId="465" priority="98">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="460" priority="97">
+    <cfRule type="expression" dxfId="464" priority="97">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="expression" dxfId="459" priority="96">
+    <cfRule type="expression" dxfId="463" priority="96">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D113">
-    <cfRule type="expression" dxfId="458" priority="94">
+    <cfRule type="expression" dxfId="462" priority="94">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D113">
-    <cfRule type="expression" dxfId="457" priority="95">
+    <cfRule type="expression" dxfId="461" priority="95">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="expression" dxfId="456" priority="93">
+    <cfRule type="expression" dxfId="460" priority="93">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="455" priority="92">
+    <cfRule type="expression" dxfId="459" priority="92">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="expression" dxfId="454" priority="91">
+    <cfRule type="expression" dxfId="458" priority="91">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="expression" dxfId="453" priority="90">
+    <cfRule type="expression" dxfId="457" priority="90">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92">
-    <cfRule type="expression" dxfId="452" priority="89">
+    <cfRule type="expression" dxfId="456" priority="89">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="expression" dxfId="451" priority="88">
+    <cfRule type="expression" dxfId="455" priority="88">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:D105">
-    <cfRule type="expression" dxfId="450" priority="87">
+    <cfRule type="expression" dxfId="454" priority="87">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:D81">
-    <cfRule type="expression" dxfId="449" priority="86">
+    <cfRule type="expression" dxfId="453" priority="86">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="expression" dxfId="448" priority="85">
+    <cfRule type="expression" dxfId="452" priority="85">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="447" priority="84">
+    <cfRule type="expression" dxfId="451" priority="84">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="expression" dxfId="446" priority="83">
+    <cfRule type="expression" dxfId="450" priority="83">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="expression" dxfId="445" priority="82">
+    <cfRule type="expression" dxfId="449" priority="82">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92">
-    <cfRule type="expression" dxfId="444" priority="81">
+    <cfRule type="expression" dxfId="448" priority="81">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G113">
-    <cfRule type="expression" dxfId="443" priority="79">
+    <cfRule type="expression" dxfId="447" priority="79">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G113">
-    <cfRule type="expression" dxfId="442" priority="80">
+    <cfRule type="expression" dxfId="446" priority="80">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="expression" dxfId="441" priority="78">
+    <cfRule type="expression" dxfId="445" priority="78">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="expression" dxfId="440" priority="77">
+    <cfRule type="expression" dxfId="444" priority="77">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="expression" dxfId="439" priority="76">
+    <cfRule type="expression" dxfId="443" priority="76">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91">
-    <cfRule type="expression" dxfId="438" priority="75">
+    <cfRule type="expression" dxfId="442" priority="75">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G92">
-    <cfRule type="expression" dxfId="437" priority="74">
+    <cfRule type="expression" dxfId="441" priority="74">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G93">
-    <cfRule type="expression" dxfId="436" priority="73">
+    <cfRule type="expression" dxfId="440" priority="73">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91:G105">
-    <cfRule type="expression" dxfId="435" priority="72">
+    <cfRule type="expression" dxfId="439" priority="72">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:G81">
-    <cfRule type="expression" dxfId="434" priority="71">
+    <cfRule type="expression" dxfId="438" priority="71">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="expression" dxfId="433" priority="70">
+    <cfRule type="expression" dxfId="437" priority="70">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="expression" dxfId="432" priority="69">
+    <cfRule type="expression" dxfId="436" priority="69">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="expression" dxfId="431" priority="68">
+    <cfRule type="expression" dxfId="435" priority="68">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91">
-    <cfRule type="expression" dxfId="430" priority="67">
+    <cfRule type="expression" dxfId="434" priority="67">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G92">
-    <cfRule type="expression" dxfId="429" priority="66">
+    <cfRule type="expression" dxfId="433" priority="66">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H113">
-    <cfRule type="expression" dxfId="428" priority="64">
+    <cfRule type="expression" dxfId="432" priority="64">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H113">
-    <cfRule type="expression" dxfId="427" priority="65">
+    <cfRule type="expression" dxfId="431" priority="65">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="expression" dxfId="426" priority="63">
+    <cfRule type="expression" dxfId="430" priority="63">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="expression" dxfId="425" priority="62">
+    <cfRule type="expression" dxfId="429" priority="62">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="expression" dxfId="424" priority="61">
+    <cfRule type="expression" dxfId="428" priority="61">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
-    <cfRule type="expression" dxfId="423" priority="60">
+    <cfRule type="expression" dxfId="427" priority="60">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="expression" dxfId="422" priority="59">
+    <cfRule type="expression" dxfId="426" priority="59">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93">
-    <cfRule type="expression" dxfId="421" priority="58">
+    <cfRule type="expression" dxfId="425" priority="58">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91:H105">
-    <cfRule type="expression" dxfId="420" priority="57">
+    <cfRule type="expression" dxfId="424" priority="57">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79:H81">
-    <cfRule type="expression" dxfId="419" priority="56">
+    <cfRule type="expression" dxfId="423" priority="56">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="expression" dxfId="418" priority="55">
+    <cfRule type="expression" dxfId="422" priority="55">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="expression" dxfId="417" priority="54">
+    <cfRule type="expression" dxfId="421" priority="54">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="expression" dxfId="416" priority="53">
+    <cfRule type="expression" dxfId="420" priority="53">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
-    <cfRule type="expression" dxfId="415" priority="52">
+    <cfRule type="expression" dxfId="419" priority="52">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="expression" dxfId="414" priority="51">
+    <cfRule type="expression" dxfId="418" priority="51">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J113">
-    <cfRule type="expression" dxfId="413" priority="49">
+    <cfRule type="expression" dxfId="417" priority="49">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J113">
-    <cfRule type="expression" dxfId="412" priority="50">
+    <cfRule type="expression" dxfId="416" priority="50">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78">
-    <cfRule type="expression" dxfId="411" priority="48">
+    <cfRule type="expression" dxfId="415" priority="48">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J89">
-    <cfRule type="expression" dxfId="410" priority="47">
+    <cfRule type="expression" dxfId="414" priority="47">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J90">
-    <cfRule type="expression" dxfId="409" priority="46">
+    <cfRule type="expression" dxfId="413" priority="46">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91">
-    <cfRule type="expression" dxfId="408" priority="45">
+    <cfRule type="expression" dxfId="412" priority="45">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J92">
-    <cfRule type="expression" dxfId="407" priority="44">
+    <cfRule type="expression" dxfId="411" priority="44">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93">
-    <cfRule type="expression" dxfId="406" priority="43">
+    <cfRule type="expression" dxfId="410" priority="43">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91:J105">
-    <cfRule type="expression" dxfId="405" priority="42">
+    <cfRule type="expression" dxfId="409" priority="42">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79:J81">
-    <cfRule type="expression" dxfId="404" priority="41">
+    <cfRule type="expression" dxfId="408" priority="41">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J88">
-    <cfRule type="expression" dxfId="403" priority="40">
+    <cfRule type="expression" dxfId="407" priority="40">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J89">
-    <cfRule type="expression" dxfId="402" priority="39">
+    <cfRule type="expression" dxfId="406" priority="39">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J90">
-    <cfRule type="expression" dxfId="401" priority="38">
+    <cfRule type="expression" dxfId="405" priority="38">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91">
-    <cfRule type="expression" dxfId="400" priority="37">
+    <cfRule type="expression" dxfId="404" priority="37">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J92">
-    <cfRule type="expression" dxfId="399" priority="36">
+    <cfRule type="expression" dxfId="403" priority="36">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I113">
-    <cfRule type="cellIs" dxfId="398" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K113">
-    <cfRule type="expression" dxfId="396" priority="29">
+    <cfRule type="expression" dxfId="400" priority="29">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K113">
-    <cfRule type="expression" dxfId="395" priority="30">
+    <cfRule type="expression" dxfId="399" priority="30">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78">
-    <cfRule type="expression" dxfId="394" priority="28">
+    <cfRule type="expression" dxfId="398" priority="28">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K89">
-    <cfRule type="expression" dxfId="393" priority="27">
+    <cfRule type="expression" dxfId="397" priority="27">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K90">
-    <cfRule type="expression" dxfId="392" priority="26">
+    <cfRule type="expression" dxfId="396" priority="26">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K91">
-    <cfRule type="expression" dxfId="391" priority="25">
+    <cfRule type="expression" dxfId="395" priority="25">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K92">
-    <cfRule type="expression" dxfId="390" priority="24">
+    <cfRule type="expression" dxfId="394" priority="24">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K93">
-    <cfRule type="expression" dxfId="389" priority="23">
+    <cfRule type="expression" dxfId="393" priority="23">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K91:K105">
-    <cfRule type="expression" dxfId="388" priority="22">
+    <cfRule type="expression" dxfId="392" priority="22">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:K81">
-    <cfRule type="expression" dxfId="387" priority="21">
+    <cfRule type="expression" dxfId="391" priority="21">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K88">
-    <cfRule type="expression" dxfId="386" priority="20">
+    <cfRule type="expression" dxfId="390" priority="20">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K89">
-    <cfRule type="expression" dxfId="385" priority="19">
+    <cfRule type="expression" dxfId="389" priority="19">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K90">
-    <cfRule type="expression" dxfId="384" priority="18">
+    <cfRule type="expression" dxfId="388" priority="18">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K91">
-    <cfRule type="expression" dxfId="383" priority="17">
+    <cfRule type="expression" dxfId="387" priority="17">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K92">
-    <cfRule type="expression" dxfId="382" priority="16">
+    <cfRule type="expression" dxfId="386" priority="16">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="381" priority="15">
+    <cfRule type="expression" dxfId="385" priority="15">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="380" priority="14">
+    <cfRule type="expression" dxfId="384" priority="14">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="expression" dxfId="379" priority="13">
+    <cfRule type="expression" dxfId="383" priority="13">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="expression" dxfId="378" priority="12">
+    <cfRule type="expression" dxfId="382" priority="12">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="expression" dxfId="377" priority="11">
+    <cfRule type="expression" dxfId="381" priority="11">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="expression" dxfId="376" priority="10">
+    <cfRule type="expression" dxfId="380" priority="10">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="expression" dxfId="375" priority="9">
+    <cfRule type="expression" dxfId="379" priority="9">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="expression" dxfId="374" priority="8">
+    <cfRule type="expression" dxfId="378" priority="8">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="expression" dxfId="373" priority="7">
+    <cfRule type="expression" dxfId="377" priority="7">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="expression" dxfId="372" priority="6">
+    <cfRule type="expression" dxfId="376" priority="6">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98">
-    <cfRule type="expression" dxfId="371" priority="5">
+    <cfRule type="expression" dxfId="375" priority="5">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98">
-    <cfRule type="expression" dxfId="370" priority="4">
+    <cfRule type="expression" dxfId="374" priority="4">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98">
-    <cfRule type="expression" dxfId="369" priority="3">
+    <cfRule type="expression" dxfId="373" priority="3">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98">
-    <cfRule type="expression" dxfId="368" priority="2">
+    <cfRule type="expression" dxfId="372" priority="2">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82">
-    <cfRule type="expression" dxfId="367" priority="1">
+    <cfRule type="expression" dxfId="371" priority="1">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12851,546 +12849,546 @@
       <c r="H113" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H108">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H108">
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="E100:E108 E34:F34 E38:F38 E42:F42 E46:F46 E50:F50 E54:F54 E55:H63 G82:H108 E35:H37 E39:H41 E43:H45 E47:H49 E51:H53 A109:H113 H69 E70:H73 E75:F99 G75:H79 H74 E65:H68 E64 G64:H64 E2:H33">
-    <cfRule type="expression" dxfId="366" priority="202">
+    <cfRule type="expression" dxfId="370" priority="202">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100:E108 E34:F34 E38:F38 E42:F42 E46:F46 E50:F50 E54:F54 E55:H63 G82:H108 A1:H1 E35:H37 E39:H41 E43:H45 E47:H49 E51:H53 A109:H113 H69 E70:H73 E75:F99 G75:H79 H74 E65:H68 E64 G64:H64 E2:H33">
-    <cfRule type="expression" dxfId="365" priority="203">
+    <cfRule type="expression" dxfId="369" priority="203">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="364" priority="194">
+    <cfRule type="expression" dxfId="368" priority="194">
       <formula>OR(ROW()=CELL("row"),COL()=CELL("col"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:D109">
-    <cfRule type="expression" dxfId="363" priority="167">
+    <cfRule type="expression" dxfId="367" priority="167">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H80 G81">
-    <cfRule type="expression" dxfId="362" priority="150">
+    <cfRule type="expression" dxfId="366" priority="150">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80:H80 G81">
-    <cfRule type="expression" dxfId="361" priority="151">
+    <cfRule type="expression" dxfId="365" priority="151">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="expression" dxfId="360" priority="142">
+    <cfRule type="expression" dxfId="364" priority="142">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="expression" dxfId="359" priority="143">
+    <cfRule type="expression" dxfId="363" priority="143">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100:F108">
-    <cfRule type="expression" dxfId="358" priority="136">
+    <cfRule type="expression" dxfId="362" priority="136">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100:F108">
-    <cfRule type="expression" dxfId="357" priority="137">
+    <cfRule type="expression" dxfId="361" priority="137">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:D77">
-    <cfRule type="expression" dxfId="356" priority="111">
+    <cfRule type="expression" dxfId="360" priority="111">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:D84">
-    <cfRule type="expression" dxfId="355" priority="109">
+    <cfRule type="expression" dxfId="359" priority="109">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:D86">
-    <cfRule type="expression" dxfId="354" priority="107">
+    <cfRule type="expression" dxfId="358" priority="107">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:D78">
-    <cfRule type="expression" dxfId="353" priority="105">
+    <cfRule type="expression" dxfId="357" priority="105">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D22 D3:D113 B23:D23 A24:D108">
-    <cfRule type="expression" dxfId="352" priority="112">
+    <cfRule type="expression" dxfId="356" priority="112">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D22 D3:D113 B23:D23 A24:D108">
-    <cfRule type="expression" dxfId="351" priority="113">
+    <cfRule type="expression" dxfId="355" priority="113">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:D83">
-    <cfRule type="expression" dxfId="350" priority="110">
+    <cfRule type="expression" dxfId="354" priority="110">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:D85">
-    <cfRule type="expression" dxfId="349" priority="108">
+    <cfRule type="expression" dxfId="353" priority="108">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:D88">
-    <cfRule type="expression" dxfId="348" priority="106">
+    <cfRule type="expression" dxfId="352" priority="106">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:D89">
-    <cfRule type="expression" dxfId="347" priority="104">
+    <cfRule type="expression" dxfId="351" priority="104">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:D90">
-    <cfRule type="expression" dxfId="346" priority="103">
+    <cfRule type="expression" dxfId="350" priority="103">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:D91">
-    <cfRule type="expression" dxfId="345" priority="102">
+    <cfRule type="expression" dxfId="349" priority="102">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="expression" dxfId="344" priority="101">
+    <cfRule type="expression" dxfId="348" priority="101">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:D93">
-    <cfRule type="expression" dxfId="343" priority="100">
+    <cfRule type="expression" dxfId="347" priority="100">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:D94">
-    <cfRule type="expression" dxfId="342" priority="99">
+    <cfRule type="expression" dxfId="346" priority="99">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:D95">
-    <cfRule type="expression" dxfId="341" priority="98">
+    <cfRule type="expression" dxfId="345" priority="98">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:D96">
-    <cfRule type="expression" dxfId="340" priority="97">
+    <cfRule type="expression" dxfId="344" priority="97">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:D97">
-    <cfRule type="expression" dxfId="339" priority="96">
+    <cfRule type="expression" dxfId="343" priority="96">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:D98">
-    <cfRule type="expression" dxfId="338" priority="95">
+    <cfRule type="expression" dxfId="342" priority="95">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:D99">
-    <cfRule type="expression" dxfId="337" priority="94">
+    <cfRule type="expression" dxfId="341" priority="94">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:D100">
-    <cfRule type="expression" dxfId="336" priority="93">
+    <cfRule type="expression" dxfId="340" priority="93">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:D101">
-    <cfRule type="expression" dxfId="335" priority="92">
+    <cfRule type="expression" dxfId="339" priority="92">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:D102">
-    <cfRule type="expression" dxfId="334" priority="91">
+    <cfRule type="expression" dxfId="338" priority="91">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:D103">
-    <cfRule type="expression" dxfId="333" priority="90">
+    <cfRule type="expression" dxfId="337" priority="90">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:D104">
-    <cfRule type="expression" dxfId="332" priority="89">
+    <cfRule type="expression" dxfId="336" priority="89">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:D105">
-    <cfRule type="expression" dxfId="331" priority="88">
+    <cfRule type="expression" dxfId="335" priority="88">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:D106">
-    <cfRule type="expression" dxfId="330" priority="87">
+    <cfRule type="expression" dxfId="334" priority="87">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:D107">
-    <cfRule type="expression" dxfId="329" priority="86">
+    <cfRule type="expression" dxfId="333" priority="86">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:D108">
-    <cfRule type="expression" dxfId="328" priority="85">
+    <cfRule type="expression" dxfId="332" priority="85">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:D83">
-    <cfRule type="expression" dxfId="327" priority="84">
+    <cfRule type="expression" dxfId="331" priority="84">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:D84">
-    <cfRule type="expression" dxfId="326" priority="83">
+    <cfRule type="expression" dxfId="330" priority="83">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:D85">
-    <cfRule type="expression" dxfId="325" priority="82">
+    <cfRule type="expression" dxfId="329" priority="82">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:D86">
-    <cfRule type="expression" dxfId="324" priority="81">
+    <cfRule type="expression" dxfId="328" priority="81">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:D88">
-    <cfRule type="expression" dxfId="323" priority="80">
+    <cfRule type="expression" dxfId="327" priority="80">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:D89">
-    <cfRule type="expression" dxfId="322" priority="79">
+    <cfRule type="expression" dxfId="326" priority="79">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:D90">
-    <cfRule type="expression" dxfId="321" priority="78">
+    <cfRule type="expression" dxfId="325" priority="78">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:D91">
-    <cfRule type="expression" dxfId="320" priority="77">
+    <cfRule type="expression" dxfId="324" priority="77">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="expression" dxfId="319" priority="76">
+    <cfRule type="expression" dxfId="323" priority="76">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:D93">
-    <cfRule type="expression" dxfId="318" priority="75">
+    <cfRule type="expression" dxfId="322" priority="75">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:D94">
-    <cfRule type="expression" dxfId="317" priority="74">
+    <cfRule type="expression" dxfId="321" priority="74">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:D95">
-    <cfRule type="expression" dxfId="316" priority="73">
+    <cfRule type="expression" dxfId="320" priority="73">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:D96">
-    <cfRule type="expression" dxfId="315" priority="72">
+    <cfRule type="expression" dxfId="319" priority="72">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:D97">
-    <cfRule type="expression" dxfId="314" priority="71">
+    <cfRule type="expression" dxfId="318" priority="71">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:D98">
-    <cfRule type="expression" dxfId="313" priority="70">
+    <cfRule type="expression" dxfId="317" priority="70">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:D99">
-    <cfRule type="expression" dxfId="312" priority="69">
+    <cfRule type="expression" dxfId="316" priority="69">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:D100">
-    <cfRule type="expression" dxfId="311" priority="68">
+    <cfRule type="expression" dxfId="315" priority="68">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:D101">
-    <cfRule type="expression" dxfId="310" priority="67">
+    <cfRule type="expression" dxfId="314" priority="67">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:D102">
-    <cfRule type="expression" dxfId="309" priority="66">
+    <cfRule type="expression" dxfId="313" priority="66">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:D103">
-    <cfRule type="expression" dxfId="308" priority="65">
+    <cfRule type="expression" dxfId="312" priority="65">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:D104">
-    <cfRule type="expression" dxfId="307" priority="64">
+    <cfRule type="expression" dxfId="311" priority="64">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:D105">
-    <cfRule type="expression" dxfId="306" priority="63">
+    <cfRule type="expression" dxfId="310" priority="63">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:D100">
-    <cfRule type="expression" dxfId="305" priority="62">
+    <cfRule type="expression" dxfId="309" priority="62">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:D101">
-    <cfRule type="expression" dxfId="304" priority="61">
+    <cfRule type="expression" dxfId="308" priority="61">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:D102">
-    <cfRule type="expression" dxfId="303" priority="60">
+    <cfRule type="expression" dxfId="307" priority="60">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:D103">
-    <cfRule type="expression" dxfId="302" priority="59">
+    <cfRule type="expression" dxfId="306" priority="59">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:D104">
-    <cfRule type="expression" dxfId="301" priority="58">
+    <cfRule type="expression" dxfId="305" priority="58">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:D105">
-    <cfRule type="expression" dxfId="300" priority="57">
+    <cfRule type="expression" dxfId="304" priority="57">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
-    <cfRule type="expression" dxfId="299" priority="40">
+    <cfRule type="expression" dxfId="303" priority="40">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
-    <cfRule type="expression" dxfId="298" priority="41">
+    <cfRule type="expression" dxfId="302" priority="41">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:H38">
-    <cfRule type="expression" dxfId="297" priority="38">
+    <cfRule type="expression" dxfId="301" priority="38">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:H38">
-    <cfRule type="expression" dxfId="296" priority="39">
+    <cfRule type="expression" dxfId="300" priority="39">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="expression" dxfId="295" priority="36">
+    <cfRule type="expression" dxfId="299" priority="36">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="expression" dxfId="294" priority="37">
+    <cfRule type="expression" dxfId="298" priority="37">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H46">
-    <cfRule type="expression" dxfId="293" priority="34">
+    <cfRule type="expression" dxfId="297" priority="34">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:H46">
-    <cfRule type="expression" dxfId="292" priority="35">
+    <cfRule type="expression" dxfId="296" priority="35">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H50">
-    <cfRule type="expression" dxfId="291" priority="32">
+    <cfRule type="expression" dxfId="295" priority="32">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H50">
-    <cfRule type="expression" dxfId="290" priority="33">
+    <cfRule type="expression" dxfId="294" priority="33">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:H54">
-    <cfRule type="expression" dxfId="289" priority="30">
+    <cfRule type="expression" dxfId="293" priority="30">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:H54">
-    <cfRule type="expression" dxfId="288" priority="31">
+    <cfRule type="expression" dxfId="292" priority="31">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D116">
-    <cfRule type="expression" dxfId="287" priority="28">
+    <cfRule type="expression" dxfId="291" priority="28">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D116">
-    <cfRule type="expression" dxfId="286" priority="29">
+    <cfRule type="expression" dxfId="290" priority="29">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:D89">
-    <cfRule type="expression" dxfId="285" priority="27">
+    <cfRule type="expression" dxfId="289" priority="27">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:D90">
-    <cfRule type="expression" dxfId="284" priority="26">
+    <cfRule type="expression" dxfId="288" priority="26">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:D91">
-    <cfRule type="expression" dxfId="283" priority="25">
+    <cfRule type="expression" dxfId="287" priority="25">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92:D92">
-    <cfRule type="expression" dxfId="282" priority="24">
+    <cfRule type="expression" dxfId="286" priority="24">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93:D93">
-    <cfRule type="expression" dxfId="281" priority="23">
+    <cfRule type="expression" dxfId="285" priority="23">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:D105">
-    <cfRule type="expression" dxfId="280" priority="22">
+    <cfRule type="expression" dxfId="284" priority="22">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:D88">
-    <cfRule type="expression" dxfId="279" priority="21">
+    <cfRule type="expression" dxfId="283" priority="21">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:D89">
-    <cfRule type="expression" dxfId="278" priority="20">
+    <cfRule type="expression" dxfId="282" priority="20">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:D90">
-    <cfRule type="expression" dxfId="277" priority="19">
+    <cfRule type="expression" dxfId="281" priority="19">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:D91">
-    <cfRule type="expression" dxfId="276" priority="18">
+    <cfRule type="expression" dxfId="280" priority="18">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92:D92">
-    <cfRule type="expression" dxfId="275" priority="17">
+    <cfRule type="expression" dxfId="279" priority="17">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:D110">
-    <cfRule type="expression" dxfId="274" priority="16">
+    <cfRule type="expression" dxfId="278" priority="16">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:D111">
-    <cfRule type="expression" dxfId="273" priority="15">
+    <cfRule type="expression" dxfId="277" priority="15">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69 G69">
-    <cfRule type="expression" dxfId="272" priority="13">
+    <cfRule type="expression" dxfId="276" priority="13">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69 G69">
-    <cfRule type="expression" dxfId="271" priority="14">
+    <cfRule type="expression" dxfId="275" priority="14">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:G74">
-    <cfRule type="expression" dxfId="270" priority="11">
+    <cfRule type="expression" dxfId="274" priority="11">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:G74">
-    <cfRule type="expression" dxfId="269" priority="12">
+    <cfRule type="expression" dxfId="273" priority="12">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="expression" dxfId="268" priority="9">
+    <cfRule type="expression" dxfId="272" priority="9">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="expression" dxfId="267" priority="10">
+    <cfRule type="expression" dxfId="271" priority="10">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="expression" dxfId="266" priority="7">
+    <cfRule type="expression" dxfId="270" priority="7">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="expression" dxfId="265" priority="8">
+    <cfRule type="expression" dxfId="269" priority="8">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="264" priority="5">
+    <cfRule type="expression" dxfId="268" priority="5">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="263" priority="6">
+    <cfRule type="expression" dxfId="267" priority="6">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="262" priority="4">
+    <cfRule type="expression" dxfId="266" priority="4">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="261" priority="3">
+    <cfRule type="expression" dxfId="265" priority="3">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="260" priority="2">
+    <cfRule type="expression" dxfId="264" priority="2">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="259" priority="1">
+    <cfRule type="expression" dxfId="263" priority="1">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13404,8 +13402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D990D66-1D5A-4927-9AF4-58A372472D57}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13454,7 +13452,9 @@
         <v>111</v>
       </c>
       <c r="C2" s="38"/>
-      <c r="D2" s="22"/>
+      <c r="D2" s="22" t="s">
+        <v>312</v>
+      </c>
       <c r="E2" s="22" t="s">
         <v>245</v>
       </c>
@@ -14418,7 +14418,9 @@
         <v>111</v>
       </c>
       <c r="C63" s="38"/>
-      <c r="D63" s="22"/>
+      <c r="D63" s="22" t="s">
+        <v>312</v>
+      </c>
       <c r="E63" s="22" t="s">
         <v>245</v>
       </c>
@@ -14498,7 +14500,9 @@
         <v>111</v>
       </c>
       <c r="C68" s="38"/>
-      <c r="D68" s="22"/>
+      <c r="D68" s="22" t="s">
+        <v>312</v>
+      </c>
       <c r="E68" s="22" t="s">
         <v>245</v>
       </c>
@@ -14578,7 +14582,9 @@
         <v>111</v>
       </c>
       <c r="C73" s="38"/>
-      <c r="D73" s="22"/>
+      <c r="D73" s="22" t="s">
+        <v>312</v>
+      </c>
       <c r="E73" s="22" t="s">
         <v>245</v>
       </c>
@@ -15104,602 +15110,622 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F82:H93 E82:E99 H100:H111 H55:H79 C107:E108 B64:C68 F94:G108 E64:E68 A109:G113 B3:E25 F55:G68 F3:H54 B26:C26 E26 B27:E63 G69 E70:G73 B70:C73 B75:B108 C75:C106 E75:E79 F75:G80 G74 B2:H2">
-    <cfRule type="expression" dxfId="258" priority="133">
+    <cfRule type="expression" dxfId="262" priority="137">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82:H93 E82:E99 H100:H111 H55:H79 C107:E108 B64:C68 F94:G108 E64:E68 A109:G113 B3:E25 F55:G68 A1:H1 B26:C26 E26 B27:E63 G69 E70:G73 B70:C73 B75:B108 C75:C106 E75:E79 F75:G80 G74 F3:H54 B2:H2">
-    <cfRule type="expression" dxfId="257" priority="134">
+    <cfRule type="expression" dxfId="261" priority="138">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B88">
-    <cfRule type="expression" dxfId="256" priority="132">
+    <cfRule type="expression" dxfId="260" priority="136">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:E25">
-    <cfRule type="expression" dxfId="255" priority="131">
+    <cfRule type="expression" dxfId="259" priority="135">
       <formula>OR(ROW()=CELL("row"),COL()=CELL("col"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109">
-    <cfRule type="expression" dxfId="254" priority="130">
+    <cfRule type="expression" dxfId="258" priority="134">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110:F111 F101:F105">
-    <cfRule type="expression" dxfId="253" priority="129">
+    <cfRule type="expression" dxfId="257" priority="133">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G81 H80:H81">
-    <cfRule type="expression" dxfId="252" priority="127">
+    <cfRule type="expression" dxfId="256" priority="131">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G81 H80:H81">
-    <cfRule type="expression" dxfId="251" priority="128">
+    <cfRule type="expression" dxfId="255" priority="132">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:E81">
-    <cfRule type="expression" dxfId="250" priority="125">
+    <cfRule type="expression" dxfId="254" priority="129">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:E81">
-    <cfRule type="expression" dxfId="249" priority="126">
+    <cfRule type="expression" dxfId="253" priority="130">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100:E106">
+    <cfRule type="expression" dxfId="252" priority="125">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100:E106">
+    <cfRule type="expression" dxfId="251" priority="126">
+      <formula>COLUMN()=CELL("col")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82:D99 D64 D66:D67 D71:D72 D76:D79">
+    <cfRule type="expression" dxfId="250" priority="123">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82:D99 D64 D66:D67 D71:D72 D76:D79">
+    <cfRule type="expression" dxfId="249" priority="124">
+      <formula>COLUMN()=CELL("col")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D80:D81">
     <cfRule type="expression" dxfId="248" priority="121">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E100:E106">
+  <conditionalFormatting sqref="D80:D81">
     <cfRule type="expression" dxfId="247" priority="122">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82:D99 D64 D66:D68 D71:D73 D76:D79">
+  <conditionalFormatting sqref="D100:D106">
     <cfRule type="expression" dxfId="246" priority="119">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82:D99 D64 D66:D68 D71:D73 D76:D79">
+  <conditionalFormatting sqref="D100:D106">
     <cfRule type="expression" dxfId="245" priority="120">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D80:D81">
+  <conditionalFormatting sqref="G94">
     <cfRule type="expression" dxfId="244" priority="117">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D80:D81">
+  <conditionalFormatting sqref="G94">
     <cfRule type="expression" dxfId="243" priority="118">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D100:D106">
+  <conditionalFormatting sqref="G95">
     <cfRule type="expression" dxfId="242" priority="115">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D100:D106">
+  <conditionalFormatting sqref="G95">
     <cfRule type="expression" dxfId="241" priority="116">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G94">
+  <conditionalFormatting sqref="G96">
     <cfRule type="expression" dxfId="240" priority="113">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G94">
+  <conditionalFormatting sqref="G96">
     <cfRule type="expression" dxfId="239" priority="114">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G95">
+  <conditionalFormatting sqref="G97">
     <cfRule type="expression" dxfId="238" priority="111">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G95">
+  <conditionalFormatting sqref="G97">
     <cfRule type="expression" dxfId="237" priority="112">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G96">
+  <conditionalFormatting sqref="G98">
     <cfRule type="expression" dxfId="236" priority="109">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G96">
+  <conditionalFormatting sqref="G98">
     <cfRule type="expression" dxfId="235" priority="110">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="G99">
     <cfRule type="expression" dxfId="234" priority="107">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="G99">
     <cfRule type="expression" dxfId="233" priority="108">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="A2:A22 A24:A108">
     <cfRule type="expression" dxfId="232" priority="105">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="A2:A22 A24:A108">
     <cfRule type="expression" dxfId="231" priority="106">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
-    <cfRule type="expression" dxfId="230" priority="103">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
-    <cfRule type="expression" dxfId="229" priority="104">
+  <conditionalFormatting sqref="A77">
+    <cfRule type="expression" dxfId="230" priority="104">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79:A83">
+    <cfRule type="expression" dxfId="229" priority="103">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="expression" dxfId="228" priority="102">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="expression" dxfId="227" priority="101">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="expression" dxfId="226" priority="100">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="expression" dxfId="225" priority="99">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="expression" dxfId="224" priority="98">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="expression" dxfId="223" priority="97">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="expression" dxfId="222" priority="96">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="expression" dxfId="221" priority="95">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="expression" dxfId="220" priority="94">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="expression" dxfId="219" priority="93">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="expression" dxfId="218" priority="92">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="expression" dxfId="217" priority="91">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="expression" dxfId="216" priority="90">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="expression" dxfId="215" priority="89">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="expression" dxfId="214" priority="88">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99">
+    <cfRule type="expression" dxfId="213" priority="87">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="expression" dxfId="212" priority="86">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="expression" dxfId="211" priority="85">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="expression" dxfId="210" priority="84">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="expression" dxfId="209" priority="83">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="expression" dxfId="208" priority="82">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="expression" dxfId="207" priority="81">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="expression" dxfId="206" priority="80">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107">
+    <cfRule type="expression" dxfId="205" priority="79">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108">
+    <cfRule type="expression" dxfId="204" priority="78">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="expression" dxfId="203" priority="77">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="expression" dxfId="202" priority="76">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="expression" dxfId="201" priority="75">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="expression" dxfId="200" priority="74">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="expression" dxfId="199" priority="73">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="expression" dxfId="198" priority="72">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="expression" dxfId="197" priority="71">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="expression" dxfId="196" priority="70">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="expression" dxfId="195" priority="69">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="expression" dxfId="194" priority="68">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="expression" dxfId="193" priority="67">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="expression" dxfId="192" priority="66">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="expression" dxfId="191" priority="65">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="expression" dxfId="190" priority="64">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="expression" dxfId="189" priority="63">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99">
+    <cfRule type="expression" dxfId="188" priority="62">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="expression" dxfId="187" priority="61">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="expression" dxfId="186" priority="60">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="expression" dxfId="185" priority="59">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="expression" dxfId="184" priority="58">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="expression" dxfId="183" priority="57">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="expression" dxfId="182" priority="56">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="expression" dxfId="181" priority="55">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="expression" dxfId="180" priority="54">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="expression" dxfId="179" priority="53">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="expression" dxfId="178" priority="52">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="expression" dxfId="177" priority="51">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="expression" dxfId="176" priority="50">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G110:G111 G101:G105">
+    <cfRule type="expression" dxfId="175" priority="49">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F81">
+    <cfRule type="expression" dxfId="174" priority="47">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F81">
+    <cfRule type="expression" dxfId="173" priority="48">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A22 A24:A108">
-    <cfRule type="expression" dxfId="228" priority="101">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A22 A24:A108">
-    <cfRule type="expression" dxfId="227" priority="102">
+  <conditionalFormatting sqref="H94">
+    <cfRule type="expression" dxfId="172" priority="45">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="expression" dxfId="171" priority="46">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="expression" dxfId="226" priority="100">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A83">
-    <cfRule type="expression" dxfId="225" priority="99">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="expression" dxfId="224" priority="98">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="223" priority="97">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
-    <cfRule type="expression" dxfId="222" priority="96">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="expression" dxfId="221" priority="95">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="220" priority="94">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="expression" dxfId="219" priority="93">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="expression" dxfId="218" priority="92">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="217" priority="91">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
-    <cfRule type="expression" dxfId="216" priority="90">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="expression" dxfId="215" priority="89">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
-    <cfRule type="expression" dxfId="214" priority="88">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="expression" dxfId="213" priority="87">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="expression" dxfId="212" priority="86">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="expression" dxfId="211" priority="85">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
-    <cfRule type="expression" dxfId="210" priority="84">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="expression" dxfId="209" priority="83">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="208" priority="82">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="207" priority="81">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="206" priority="80">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="205" priority="79">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="204" priority="78">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="203" priority="77">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
-    <cfRule type="expression" dxfId="202" priority="76">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
-    <cfRule type="expression" dxfId="201" priority="75">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A108">
-    <cfRule type="expression" dxfId="200" priority="74">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
-    <cfRule type="expression" dxfId="199" priority="73">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="expression" dxfId="198" priority="72">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="197" priority="71">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
-    <cfRule type="expression" dxfId="196" priority="70">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="expression" dxfId="195" priority="69">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="expression" dxfId="194" priority="68">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="expression" dxfId="193" priority="67">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="192" priority="66">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
-    <cfRule type="expression" dxfId="191" priority="65">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="expression" dxfId="190" priority="64">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
-    <cfRule type="expression" dxfId="189" priority="63">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="expression" dxfId="188" priority="62">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="expression" dxfId="187" priority="61">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="expression" dxfId="186" priority="60">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
-    <cfRule type="expression" dxfId="185" priority="59">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="expression" dxfId="184" priority="58">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="183" priority="57">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="182" priority="56">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="181" priority="55">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="180" priority="54">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="179" priority="53">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="178" priority="52">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="177" priority="51">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="176" priority="50">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="175" priority="49">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="174" priority="48">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="173" priority="47">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="172" priority="46">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G110:G111 G101:G105">
-    <cfRule type="expression" dxfId="171" priority="45">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81">
+  <conditionalFormatting sqref="H95">
     <cfRule type="expression" dxfId="170" priority="43">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81">
+  <conditionalFormatting sqref="H95">
     <cfRule type="expression" dxfId="169" priority="44">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
+  <conditionalFormatting sqref="H96">
     <cfRule type="expression" dxfId="168" priority="41">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
+  <conditionalFormatting sqref="H96">
     <cfRule type="expression" dxfId="167" priority="42">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
+  <conditionalFormatting sqref="H97">
     <cfRule type="expression" dxfId="166" priority="39">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
+  <conditionalFormatting sqref="H97">
     <cfRule type="expression" dxfId="165" priority="40">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
+  <conditionalFormatting sqref="H98">
     <cfRule type="expression" dxfId="164" priority="37">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
+  <conditionalFormatting sqref="H98">
     <cfRule type="expression" dxfId="163" priority="38">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
+  <conditionalFormatting sqref="H99">
     <cfRule type="expression" dxfId="162" priority="35">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
+  <conditionalFormatting sqref="H99">
     <cfRule type="expression" dxfId="161" priority="36">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="expression" dxfId="160" priority="33">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="expression" dxfId="159" priority="34">
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="160" priority="21">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="159" priority="22">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H99">
-    <cfRule type="expression" dxfId="158" priority="31">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H99">
-    <cfRule type="expression" dxfId="157" priority="32">
+  <conditionalFormatting sqref="D70">
+    <cfRule type="expression" dxfId="158" priority="19">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="expression" dxfId="157" priority="20">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D75">
     <cfRule type="expression" dxfId="156" priority="17">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D75">
     <cfRule type="expression" dxfId="155" priority="18">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="154" priority="15">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D26">
     <cfRule type="expression" dxfId="153" priority="16">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
+  <conditionalFormatting sqref="B69:C69 E69:F69">
     <cfRule type="expression" dxfId="152" priority="13">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
+  <conditionalFormatting sqref="B69:C69 E69:F69">
     <cfRule type="expression" dxfId="151" priority="14">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D69">
     <cfRule type="expression" dxfId="150" priority="11">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D69">
     <cfRule type="expression" dxfId="149" priority="12">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69:C69 E69:F69">
+  <conditionalFormatting sqref="B74:C74 E74:F74">
     <cfRule type="expression" dxfId="148" priority="9">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69:C69 E69:F69">
+  <conditionalFormatting sqref="B74:C74 E74:F74">
     <cfRule type="expression" dxfId="147" priority="10">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
+  <conditionalFormatting sqref="D74">
     <cfRule type="expression" dxfId="146" priority="7">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
+  <conditionalFormatting sqref="D74">
     <cfRule type="expression" dxfId="145" priority="8">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74:C74 E74:F74">
+  <conditionalFormatting sqref="A23">
     <cfRule type="expression" dxfId="144" priority="5">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74:C74 E74:F74">
+  <conditionalFormatting sqref="A23">
     <cfRule type="expression" dxfId="143" priority="6">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="expression" dxfId="142" priority="3">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="expression" dxfId="141" priority="4">
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="140" priority="1">
-      <formula>ROW()=CELL("row")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="139" priority="2">
+  <conditionalFormatting sqref="D73">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17950,371 +17976,371 @@
       <c r="H112" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J108">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J108">
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="A112:H115 B2:H79 B82:H106">
-    <cfRule type="expression" dxfId="138" priority="117">
+    <cfRule type="expression" dxfId="142" priority="117">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A112:H115 B2:H79 B82:H106">
-    <cfRule type="expression" dxfId="137" priority="118">
+    <cfRule type="expression" dxfId="141" priority="118">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="expression" dxfId="136" priority="83">
+    <cfRule type="expression" dxfId="140" priority="83">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:H80">
-    <cfRule type="expression" dxfId="135" priority="77">
+    <cfRule type="expression" dxfId="139" priority="77">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:H80">
-    <cfRule type="expression" dxfId="134" priority="78">
+    <cfRule type="expression" dxfId="138" priority="78">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:F81 H81">
-    <cfRule type="expression" dxfId="133" priority="72">
+    <cfRule type="expression" dxfId="137" priority="72">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:F81 H81">
-    <cfRule type="expression" dxfId="132" priority="73">
+    <cfRule type="expression" dxfId="136" priority="73">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:C81">
-    <cfRule type="expression" dxfId="131" priority="70">
+    <cfRule type="expression" dxfId="135" priority="70">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:C81">
-    <cfRule type="expression" dxfId="130" priority="71">
+    <cfRule type="expression" dxfId="134" priority="71">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="expression" dxfId="129" priority="68">
+    <cfRule type="expression" dxfId="133" priority="68">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="expression" dxfId="128" priority="69">
+    <cfRule type="expression" dxfId="132" priority="69">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:H111 B107:H108">
-    <cfRule type="expression" dxfId="127" priority="61">
+    <cfRule type="expression" dxfId="131" priority="61">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:H111 B107:H108">
-    <cfRule type="expression" dxfId="126" priority="62">
+    <cfRule type="expression" dxfId="130" priority="62">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:D111">
-    <cfRule type="expression" dxfId="125" priority="60">
+    <cfRule type="expression" dxfId="129" priority="60">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A22 A24:A108">
-    <cfRule type="expression" dxfId="124" priority="58">
+    <cfRule type="expression" dxfId="128" priority="58">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A22 A24:A108">
-    <cfRule type="expression" dxfId="123" priority="59">
+    <cfRule type="expression" dxfId="127" priority="59">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="expression" dxfId="122" priority="57">
+    <cfRule type="expression" dxfId="126" priority="57">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:A83">
-    <cfRule type="expression" dxfId="121" priority="56">
+    <cfRule type="expression" dxfId="125" priority="56">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="expression" dxfId="120" priority="55">
+    <cfRule type="expression" dxfId="124" priority="55">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="119" priority="54">
+    <cfRule type="expression" dxfId="123" priority="54">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="expression" dxfId="118" priority="53">
+    <cfRule type="expression" dxfId="122" priority="53">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="expression" dxfId="117" priority="52">
+    <cfRule type="expression" dxfId="121" priority="52">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="116" priority="51">
+    <cfRule type="expression" dxfId="120" priority="51">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" dxfId="115" priority="50">
+    <cfRule type="expression" dxfId="119" priority="50">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="expression" dxfId="114" priority="49">
+    <cfRule type="expression" dxfId="118" priority="49">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="113" priority="48">
+    <cfRule type="expression" dxfId="117" priority="48">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="expression" dxfId="112" priority="47">
+    <cfRule type="expression" dxfId="116" priority="47">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="expression" dxfId="111" priority="46">
+    <cfRule type="expression" dxfId="115" priority="46">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="expression" dxfId="110" priority="45">
+    <cfRule type="expression" dxfId="114" priority="45">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="expression" dxfId="109" priority="44">
+    <cfRule type="expression" dxfId="113" priority="44">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="expression" dxfId="108" priority="43">
+    <cfRule type="expression" dxfId="112" priority="43">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="expression" dxfId="107" priority="42">
+    <cfRule type="expression" dxfId="111" priority="42">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="expression" dxfId="106" priority="41">
+    <cfRule type="expression" dxfId="110" priority="41">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="expression" dxfId="105" priority="40">
+    <cfRule type="expression" dxfId="109" priority="40">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="104" priority="39">
+    <cfRule type="expression" dxfId="108" priority="39">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="103" priority="38">
+    <cfRule type="expression" dxfId="107" priority="38">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="102" priority="37">
+    <cfRule type="expression" dxfId="106" priority="37">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="101" priority="36">
+    <cfRule type="expression" dxfId="105" priority="36">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="100" priority="35">
+    <cfRule type="expression" dxfId="104" priority="35">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="99" priority="34">
+    <cfRule type="expression" dxfId="103" priority="34">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="expression" dxfId="98" priority="33">
+    <cfRule type="expression" dxfId="102" priority="33">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="expression" dxfId="97" priority="32">
+    <cfRule type="expression" dxfId="101" priority="32">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="expression" dxfId="96" priority="31">
+    <cfRule type="expression" dxfId="100" priority="31">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="expression" dxfId="95" priority="30">
+    <cfRule type="expression" dxfId="99" priority="30">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="expression" dxfId="94" priority="29">
+    <cfRule type="expression" dxfId="98" priority="29">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="93" priority="28">
+    <cfRule type="expression" dxfId="97" priority="28">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="expression" dxfId="92" priority="27">
+    <cfRule type="expression" dxfId="96" priority="27">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="expression" dxfId="91" priority="26">
+    <cfRule type="expression" dxfId="95" priority="26">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" dxfId="90" priority="25">
+    <cfRule type="expression" dxfId="94" priority="25">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="expression" dxfId="89" priority="24">
+    <cfRule type="expression" dxfId="93" priority="24">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="88" priority="23">
+    <cfRule type="expression" dxfId="92" priority="23">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="expression" dxfId="87" priority="22">
+    <cfRule type="expression" dxfId="91" priority="22">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="expression" dxfId="86" priority="21">
+    <cfRule type="expression" dxfId="90" priority="21">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="expression" dxfId="85" priority="20">
+    <cfRule type="expression" dxfId="89" priority="20">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="expression" dxfId="84" priority="19">
+    <cfRule type="expression" dxfId="88" priority="19">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="expression" dxfId="83" priority="18">
+    <cfRule type="expression" dxfId="87" priority="18">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="expression" dxfId="82" priority="17">
+    <cfRule type="expression" dxfId="86" priority="17">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="expression" dxfId="81" priority="16">
+    <cfRule type="expression" dxfId="85" priority="16">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="expression" dxfId="80" priority="15">
+    <cfRule type="expression" dxfId="84" priority="15">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="79" priority="14">
+    <cfRule type="expression" dxfId="83" priority="14">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="78" priority="13">
+    <cfRule type="expression" dxfId="82" priority="13">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="77" priority="12">
+    <cfRule type="expression" dxfId="81" priority="12">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="76" priority="11">
+    <cfRule type="expression" dxfId="80" priority="11">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="75" priority="10">
+    <cfRule type="expression" dxfId="79" priority="10">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="74" priority="9">
+    <cfRule type="expression" dxfId="78" priority="9">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="73" priority="8">
+    <cfRule type="expression" dxfId="77" priority="8">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="72" priority="7">
+    <cfRule type="expression" dxfId="76" priority="7">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="71" priority="6">
+    <cfRule type="expression" dxfId="75" priority="6">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="70" priority="5">
+    <cfRule type="expression" dxfId="74" priority="5">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="69" priority="4">
+    <cfRule type="expression" dxfId="73" priority="4">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="68" priority="3">
+    <cfRule type="expression" dxfId="72" priority="3">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="67" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19334,336 +19360,336 @@
       <c r="B121" s="34"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C108">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C108">
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="A112:C121 A109:B111 B2:C80 B106:C116 C81:C110 B82:B108">
-    <cfRule type="expression" dxfId="65" priority="79">
+    <cfRule type="expression" dxfId="69" priority="79">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A112:C121 A109:B111 C81:C111 B82:B108 B2:C80">
-    <cfRule type="expression" dxfId="64" priority="80">
+    <cfRule type="expression" dxfId="68" priority="80">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="expression" dxfId="63" priority="67">
+    <cfRule type="expression" dxfId="67" priority="67">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="expression" dxfId="62" priority="66">
+    <cfRule type="expression" dxfId="66" priority="66">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
-    <cfRule type="expression" dxfId="61" priority="65">
+    <cfRule type="expression" dxfId="65" priority="65">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115">
-    <cfRule type="expression" dxfId="60" priority="64">
+    <cfRule type="expression" dxfId="64" priority="64">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="expression" dxfId="59" priority="63">
+    <cfRule type="expression" dxfId="63" priority="63">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="58" priority="59">
+    <cfRule type="expression" dxfId="62" priority="59">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="57" priority="60">
+    <cfRule type="expression" dxfId="61" priority="60">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A108">
-    <cfRule type="expression" dxfId="56" priority="56">
+    <cfRule type="expression" dxfId="60" priority="56">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A108">
-    <cfRule type="expression" dxfId="55" priority="57">
+    <cfRule type="expression" dxfId="59" priority="57">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="58" priority="55">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:A83">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="57" priority="54">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="56" priority="53">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="51" priority="52">
+    <cfRule type="expression" dxfId="55" priority="52">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="54" priority="51">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="53" priority="50">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="52" priority="49">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="51" priority="48">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="50" priority="47">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="49" priority="46">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="48" priority="45">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="47" priority="44">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="46" priority="43">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="45" priority="42">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="44" priority="41">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="43" priority="40">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="42" priority="39">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="41" priority="38">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="40" priority="37">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="39" priority="36">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="38" priority="35">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="37" priority="34">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="36" priority="33">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="35" priority="32">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="34" priority="31">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="33" priority="30">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="32" priority="29">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="31" priority="28">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="30" priority="27">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="29" priority="26">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="28" priority="25">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="27" priority="24">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="26" priority="23">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="25" priority="22">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="24" priority="21">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="23" priority="20">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="22" priority="19">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="21" priority="18">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="20" priority="17">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="18" priority="15">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="17" priority="14">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19697,7 +19723,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f ca="1">NOW()</f>
-        <v>45092.618308912039</v>
+        <v>45093.708055555559</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">

--- a/src/exso/Files/ReportsInfo.xlsx
+++ b/src/exso/Files/ReportsInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.natsikas\Desktop\Admie-Desktop\exso\src\exso\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B47CEA3-3FB3-4B40-AE0D-49E0AFC096E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D692FB-E96E-44E3-9171-81AC326017C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1150,7 +1150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="314">
   <si>
     <t>AdhocISPResults</t>
   </si>
@@ -2093,6 +2093,9 @@
   </si>
   <si>
     <t>ISPResults.csv</t>
+  </si>
+  <si>
+    <t>['ISPCapacityOffers']</t>
   </si>
 </sst>
 </file>
@@ -2676,6 +2679,391 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -2739,356 +3127,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -3152,6 +3190,356 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -3166,6 +3554,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -3180,391 +3575,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -3579,13 +3589,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -3628,6 +3631,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -3643,13 +3653,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6642,8 +6645,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71:D72"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8985,8 +8988,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="1" t="b">
-        <f>IF(Metadata!G77="",TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="37" t="s">
         <v>82</v>
@@ -9005,7 +9007,7 @@
         <v>308</v>
       </c>
       <c r="E78" s="18">
-        <v>44136</v>
+        <v>44221</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="22" t="b">
@@ -9016,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="37" t="s">
         <v>82</v>
@@ -10834,8 +10836,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12321,9 +12323,15 @@
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="21"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="6"/>
+      <c r="E77" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="G77" s="6">
+        <v>0</v>
+      </c>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -13402,8 +13410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D990D66-1D5A-4927-9AF4-58A372472D57}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14648,9 +14656,15 @@
       <c r="C77" s="38"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="9"/>
+      <c r="F77" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G77" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
@@ -15710,22 +15724,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="142" priority="3">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="141" priority="4">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="140" priority="1">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="139" priority="2">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15739,8 +15753,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17368,7 +17382,9 @@
         <v>126</v>
       </c>
       <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
+      <c r="E77" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="F77" s="6">
         <v>0</v>
       </c>
@@ -17980,367 +17996,367 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="A112:H115 B2:H79 B82:H106">
-    <cfRule type="expression" dxfId="142" priority="117">
+    <cfRule type="expression" dxfId="138" priority="117">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A112:H115 B2:H79 B82:H106">
-    <cfRule type="expression" dxfId="141" priority="118">
+    <cfRule type="expression" dxfId="137" priority="118">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="expression" dxfId="140" priority="83">
+    <cfRule type="expression" dxfId="136" priority="83">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:H80">
-    <cfRule type="expression" dxfId="139" priority="77">
+    <cfRule type="expression" dxfId="135" priority="77">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:H80">
-    <cfRule type="expression" dxfId="138" priority="78">
+    <cfRule type="expression" dxfId="134" priority="78">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:F81 H81">
-    <cfRule type="expression" dxfId="137" priority="72">
+    <cfRule type="expression" dxfId="133" priority="72">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:F81 H81">
-    <cfRule type="expression" dxfId="136" priority="73">
+    <cfRule type="expression" dxfId="132" priority="73">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:C81">
-    <cfRule type="expression" dxfId="135" priority="70">
+    <cfRule type="expression" dxfId="131" priority="70">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:C81">
-    <cfRule type="expression" dxfId="134" priority="71">
+    <cfRule type="expression" dxfId="130" priority="71">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="expression" dxfId="133" priority="68">
+    <cfRule type="expression" dxfId="129" priority="68">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="expression" dxfId="132" priority="69">
+    <cfRule type="expression" dxfId="128" priority="69">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:H111 B107:H108">
-    <cfRule type="expression" dxfId="131" priority="61">
+    <cfRule type="expression" dxfId="127" priority="61">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:H111 B107:H108">
-    <cfRule type="expression" dxfId="130" priority="62">
+    <cfRule type="expression" dxfId="126" priority="62">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:D111">
-    <cfRule type="expression" dxfId="129" priority="60">
+    <cfRule type="expression" dxfId="125" priority="60">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A22 A24:A108">
-    <cfRule type="expression" dxfId="128" priority="58">
+    <cfRule type="expression" dxfId="124" priority="58">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A22 A24:A108">
-    <cfRule type="expression" dxfId="127" priority="59">
+    <cfRule type="expression" dxfId="123" priority="59">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="expression" dxfId="126" priority="57">
+    <cfRule type="expression" dxfId="122" priority="57">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:A83">
-    <cfRule type="expression" dxfId="125" priority="56">
+    <cfRule type="expression" dxfId="121" priority="56">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="expression" dxfId="124" priority="55">
+    <cfRule type="expression" dxfId="120" priority="55">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="123" priority="54">
+    <cfRule type="expression" dxfId="119" priority="54">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="expression" dxfId="122" priority="53">
+    <cfRule type="expression" dxfId="118" priority="53">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="expression" dxfId="121" priority="52">
+    <cfRule type="expression" dxfId="117" priority="52">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="120" priority="51">
+    <cfRule type="expression" dxfId="116" priority="51">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" dxfId="119" priority="50">
+    <cfRule type="expression" dxfId="115" priority="50">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="expression" dxfId="118" priority="49">
+    <cfRule type="expression" dxfId="114" priority="49">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="117" priority="48">
+    <cfRule type="expression" dxfId="113" priority="48">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="expression" dxfId="116" priority="47">
+    <cfRule type="expression" dxfId="112" priority="47">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="expression" dxfId="115" priority="46">
+    <cfRule type="expression" dxfId="111" priority="46">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="expression" dxfId="114" priority="45">
+    <cfRule type="expression" dxfId="110" priority="45">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="expression" dxfId="113" priority="44">
+    <cfRule type="expression" dxfId="109" priority="44">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="expression" dxfId="112" priority="43">
+    <cfRule type="expression" dxfId="108" priority="43">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="expression" dxfId="111" priority="42">
+    <cfRule type="expression" dxfId="107" priority="42">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="expression" dxfId="110" priority="41">
+    <cfRule type="expression" dxfId="106" priority="41">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="expression" dxfId="109" priority="40">
+    <cfRule type="expression" dxfId="105" priority="40">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="108" priority="39">
+    <cfRule type="expression" dxfId="104" priority="39">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="107" priority="38">
+    <cfRule type="expression" dxfId="103" priority="38">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="106" priority="37">
+    <cfRule type="expression" dxfId="102" priority="37">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="105" priority="36">
+    <cfRule type="expression" dxfId="101" priority="36">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="104" priority="35">
+    <cfRule type="expression" dxfId="100" priority="35">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="103" priority="34">
+    <cfRule type="expression" dxfId="99" priority="34">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="expression" dxfId="102" priority="33">
+    <cfRule type="expression" dxfId="98" priority="33">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="expression" dxfId="101" priority="32">
+    <cfRule type="expression" dxfId="97" priority="32">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="expression" dxfId="100" priority="31">
+    <cfRule type="expression" dxfId="96" priority="31">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="expression" dxfId="99" priority="30">
+    <cfRule type="expression" dxfId="95" priority="30">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="expression" dxfId="98" priority="29">
+    <cfRule type="expression" dxfId="94" priority="29">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="97" priority="28">
+    <cfRule type="expression" dxfId="93" priority="28">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="expression" dxfId="96" priority="27">
+    <cfRule type="expression" dxfId="92" priority="27">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="expression" dxfId="95" priority="26">
+    <cfRule type="expression" dxfId="91" priority="26">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" dxfId="94" priority="25">
+    <cfRule type="expression" dxfId="90" priority="25">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="expression" dxfId="93" priority="24">
+    <cfRule type="expression" dxfId="89" priority="24">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="92" priority="23">
+    <cfRule type="expression" dxfId="88" priority="23">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="expression" dxfId="91" priority="22">
+    <cfRule type="expression" dxfId="87" priority="22">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="expression" dxfId="90" priority="21">
+    <cfRule type="expression" dxfId="86" priority="21">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="expression" dxfId="89" priority="20">
+    <cfRule type="expression" dxfId="85" priority="20">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="expression" dxfId="88" priority="19">
+    <cfRule type="expression" dxfId="84" priority="19">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="expression" dxfId="87" priority="18">
+    <cfRule type="expression" dxfId="83" priority="18">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="expression" dxfId="86" priority="17">
+    <cfRule type="expression" dxfId="82" priority="17">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="expression" dxfId="85" priority="16">
+    <cfRule type="expression" dxfId="81" priority="16">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="expression" dxfId="84" priority="15">
+    <cfRule type="expression" dxfId="80" priority="15">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="83" priority="14">
+    <cfRule type="expression" dxfId="79" priority="14">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="82" priority="13">
+    <cfRule type="expression" dxfId="78" priority="13">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="81" priority="12">
+    <cfRule type="expression" dxfId="77" priority="12">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="80" priority="11">
+    <cfRule type="expression" dxfId="76" priority="11">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="79" priority="10">
+    <cfRule type="expression" dxfId="75" priority="10">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="78" priority="9">
+    <cfRule type="expression" dxfId="74" priority="9">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="77" priority="8">
+    <cfRule type="expression" dxfId="73" priority="8">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="76" priority="7">
+    <cfRule type="expression" dxfId="72" priority="7">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="75" priority="6">
+    <cfRule type="expression" dxfId="71" priority="6">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="74" priority="5">
+    <cfRule type="expression" dxfId="70" priority="5">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="73" priority="4">
+    <cfRule type="expression" dxfId="69" priority="4">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="72" priority="3">
+    <cfRule type="expression" dxfId="68" priority="3">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19364,332 +19380,332 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="A112:C121 A109:B111 B2:C80 B106:C116 C81:C110 B82:B108">
-    <cfRule type="expression" dxfId="69" priority="79">
+    <cfRule type="expression" dxfId="65" priority="79">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A112:C121 A109:B111 C81:C111 B82:B108 B2:C80">
-    <cfRule type="expression" dxfId="68" priority="80">
+    <cfRule type="expression" dxfId="64" priority="80">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="expression" dxfId="67" priority="67">
+    <cfRule type="expression" dxfId="63" priority="67">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="expression" dxfId="66" priority="66">
+    <cfRule type="expression" dxfId="62" priority="66">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
-    <cfRule type="expression" dxfId="65" priority="65">
+    <cfRule type="expression" dxfId="61" priority="65">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115">
-    <cfRule type="expression" dxfId="64" priority="64">
+    <cfRule type="expression" dxfId="60" priority="64">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="expression" dxfId="63" priority="63">
+    <cfRule type="expression" dxfId="59" priority="63">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="62" priority="59">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="61" priority="60">
+    <cfRule type="expression" dxfId="57" priority="60">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A108">
-    <cfRule type="expression" dxfId="60" priority="56">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A108">
-    <cfRule type="expression" dxfId="59" priority="57">
+    <cfRule type="expression" dxfId="55" priority="57">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="expression" dxfId="58" priority="55">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:A83">
-    <cfRule type="expression" dxfId="57" priority="54">
+    <cfRule type="expression" dxfId="53" priority="54">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="expression" dxfId="56" priority="53">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="55" priority="52">
+    <cfRule type="expression" dxfId="51" priority="52">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="expression" dxfId="54" priority="51">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="expression" dxfId="53" priority="50">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="52" priority="49">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" dxfId="51" priority="48">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="expression" dxfId="50" priority="47">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="49" priority="46">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="expression" dxfId="48" priority="45">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="expression" dxfId="47" priority="44">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="expression" dxfId="46" priority="43">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="expression" dxfId="45" priority="42">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="expression" dxfId="44" priority="41">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="expression" dxfId="43" priority="40">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="expression" dxfId="42" priority="39">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="expression" dxfId="41" priority="38">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="40" priority="37">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="39" priority="36">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="38" priority="35">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="37" priority="34">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="36" priority="33">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="35" priority="32">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="expression" dxfId="34" priority="31">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="expression" dxfId="33" priority="30">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="expression" dxfId="32" priority="29">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="expression" dxfId="31" priority="28">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="expression" dxfId="30" priority="27">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="29" priority="26">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="expression" dxfId="28" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="expression" dxfId="27" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" dxfId="26" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="expression" dxfId="23" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="expression" dxfId="22" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="expression" dxfId="21" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="expression" dxfId="16" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19723,7 +19739,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f ca="1">NOW()</f>
-        <v>45093.708055555559</v>
+        <v>45113.518726851849</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">

--- a/src/exso/Files/ReportsInfo.xlsx
+++ b/src/exso/Files/ReportsInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.natsikas\Desktop\Admie-Desktop\exso\src\exso\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D692FB-E96E-44E3-9171-81AC326017C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799F45A5-A55A-4611-85E4-37EFDE6B1749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6645,8 +6645,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8977,7 +8977,7 @@
         <v>308</v>
       </c>
       <c r="E77" s="18">
-        <v>44136</v>
+        <v>44221</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="22" t="b">
@@ -10167,12 +10167,12 @@
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F79 E112:F113 E82:F106">
+  <conditionalFormatting sqref="E112:F113 E82:F106 E2:F79">
     <cfRule type="expression" dxfId="502" priority="200">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F79 E112:F113 E82:F106">
+  <conditionalFormatting sqref="E112:F113 E82:F106 E1:F79">
     <cfRule type="expression" dxfId="501" priority="201">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
@@ -19739,7 +19739,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f ca="1">NOW()</f>
-        <v>45113.518726851849</v>
+        <v>45113.589948032408</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">

--- a/src/exso/Files/ReportsInfo.xlsx
+++ b/src/exso/Files/ReportsInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\Admie-Desktop\exso\src\exso\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7F88BA-43E1-44DF-8FCB-4EAD4FF93DD6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B8EC7-5C3D-4A3C-9018-8AC398EF486C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1925,9 +1925,6 @@
     <t>ISPResults.csv</t>
   </si>
   <si>
-    <t>{'\+':''}</t>
-  </si>
-  <si>
     <t>horizontal</t>
   </si>
   <si>
@@ -1970,9 +1967,6 @@
     <t>{'POYRNARI1': 'POURNARI1', 'POYRNARI2': 'POURNARI2','STRATOS':'STRATOS1'}</t>
   </si>
   <si>
-    <t>{"``":np.NaN}</t>
-  </si>
-  <si>
     <t>SystemRealizationSCADA.txt</t>
   </si>
   <si>
@@ -2027,15 +2021,9 @@
     <t>Y</t>
   </si>
   <si>
-    <t>1H</t>
-  </si>
-  <si>
     <t>16:15/D-1</t>
   </si>
   <si>
-    <t>12H</t>
-  </si>
-  <si>
     <t>EET</t>
   </si>
   <si>
@@ -2160,6 +2148,18 @@
   </si>
   <si>
     <t>IDM_IDA3_ResultsSummary</t>
+  </si>
+  <si>
+    <t>{r'\+':''}</t>
+  </si>
+  <si>
+    <t>{"``":np.nan}</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>1h</t>
   </si>
 </sst>
 </file>
@@ -2703,7 +2703,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="302">
+  <dxfs count="252">
     <dxf>
       <fill>
         <patternFill>
@@ -2715,103 +2715,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2860,13 +2763,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF93CDDD"/>
         </patternFill>
       </fill>
@@ -2875,139 +2771,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3071,111 +2834,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3301,7 +2959,112 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3364,20 +3127,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3407,6 +3156,117 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93CDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4538,234 +4398,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93CDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF93CDDD"/>
         </patternFill>
       </fill>
@@ -5282,8 +4914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L300"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6832,7 +6464,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
@@ -6865,7 +6497,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
@@ -6898,7 +6530,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
@@ -6931,7 +6563,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
@@ -6964,7 +6596,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
@@ -6997,7 +6629,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
@@ -7030,7 +6662,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
@@ -7063,7 +6695,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8" t="s">
@@ -7096,7 +6728,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8" t="s">
@@ -7129,7 +6761,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
@@ -7162,7 +6794,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8" t="s">
@@ -7195,7 +6827,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8" t="s">
@@ -11957,900 +11589,900 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:B98 A108:B111">
-    <cfRule type="expression" dxfId="301" priority="252">
+    <cfRule type="expression" dxfId="251" priority="252">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:B81">
-    <cfRule type="expression" dxfId="300" priority="253">
+    <cfRule type="expression" dxfId="250" priority="253">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:B98 A108:B111">
-    <cfRule type="expression" dxfId="299" priority="254">
+    <cfRule type="expression" dxfId="249" priority="254">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:E98 A108:E111">
-    <cfRule type="expression" dxfId="298" priority="242">
+    <cfRule type="expression" dxfId="248" priority="242">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C98 C108:C111">
-    <cfRule type="expression" dxfId="297" priority="292">
+    <cfRule type="expression" dxfId="247" priority="292">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:C81">
-    <cfRule type="expression" dxfId="296" priority="293">
+    <cfRule type="expression" dxfId="246" priority="293">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88:C98 C108:C111">
-    <cfRule type="expression" dxfId="295" priority="294">
+    <cfRule type="expression" dxfId="245" priority="294">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78:D82">
-    <cfRule type="expression" dxfId="294" priority="308">
+    <cfRule type="expression" dxfId="244" priority="308">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88:D98 D108:D111">
-    <cfRule type="expression" dxfId="293" priority="309">
+    <cfRule type="expression" dxfId="243" priority="309">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E98 D108:E111">
-    <cfRule type="expression" dxfId="292" priority="307">
+    <cfRule type="expression" dxfId="242" priority="307">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:I98 F108:I111">
-    <cfRule type="expression" dxfId="291" priority="225">
+    <cfRule type="expression" dxfId="241" priority="225">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:I98 F108:I111">
-    <cfRule type="expression" dxfId="290" priority="224">
+    <cfRule type="expression" dxfId="240" priority="224">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:I81">
-    <cfRule type="expression" dxfId="289" priority="323">
+    <cfRule type="expression" dxfId="239" priority="323">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88:I98 H108:I111">
-    <cfRule type="expression" dxfId="288" priority="324">
+    <cfRule type="expression" dxfId="238" priority="324">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J98 J108:J111">
-    <cfRule type="cellIs" dxfId="287" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="366" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="367" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L98 K108:L111">
-    <cfRule type="expression" dxfId="285" priority="352">
+    <cfRule type="expression" dxfId="235" priority="352">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L98 K108:L111">
-    <cfRule type="expression" dxfId="284" priority="248">
+    <cfRule type="expression" dxfId="234" priority="248">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:L81">
-    <cfRule type="expression" dxfId="283" priority="353">
+    <cfRule type="expression" dxfId="233" priority="353">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K88:L98 K108:L111">
-    <cfRule type="expression" dxfId="282" priority="354">
+    <cfRule type="expression" dxfId="232" priority="354">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:E99">
-    <cfRule type="expression" dxfId="251" priority="161">
+    <cfRule type="expression" dxfId="231" priority="161">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B99">
-    <cfRule type="expression" dxfId="250" priority="163">
+    <cfRule type="expression" dxfId="230" priority="163">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99:I99">
-    <cfRule type="expression" dxfId="249" priority="160">
+    <cfRule type="expression" dxfId="229" priority="160">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99:I99">
-    <cfRule type="expression" dxfId="248" priority="159">
+    <cfRule type="expression" dxfId="228" priority="159">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99">
-    <cfRule type="expression" dxfId="247" priority="165">
+    <cfRule type="expression" dxfId="227" priority="165">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="246" priority="82">
+    <cfRule type="expression" dxfId="226" priority="82">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K99:L99">
-    <cfRule type="expression" dxfId="245" priority="162">
+    <cfRule type="expression" dxfId="225" priority="162">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B101">
-    <cfRule type="expression" dxfId="244" priority="148">
+    <cfRule type="expression" dxfId="224" priority="148">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B99">
-    <cfRule type="expression" dxfId="243" priority="164">
+    <cfRule type="expression" dxfId="223" priority="164">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:E101">
-    <cfRule type="expression" dxfId="242" priority="146">
+    <cfRule type="expression" dxfId="222" priority="146">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="expression" dxfId="241" priority="150">
+    <cfRule type="expression" dxfId="221" priority="150">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99">
-    <cfRule type="expression" dxfId="240" priority="166">
+    <cfRule type="expression" dxfId="220" priority="166">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99">
-    <cfRule type="expression" dxfId="239" priority="168">
+    <cfRule type="expression" dxfId="219" priority="168">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:E99">
-    <cfRule type="expression" dxfId="238" priority="167">
+    <cfRule type="expression" dxfId="218" priority="167">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101:I101">
-    <cfRule type="expression" dxfId="237" priority="145">
+    <cfRule type="expression" dxfId="217" priority="145">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101:I101">
-    <cfRule type="expression" dxfId="236" priority="144">
+    <cfRule type="expression" dxfId="216" priority="144">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:I99">
-    <cfRule type="expression" dxfId="235" priority="169">
+    <cfRule type="expression" dxfId="215" priority="169">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J99">
-    <cfRule type="cellIs" dxfId="234" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="172" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="173" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K99:L99">
-    <cfRule type="expression" dxfId="232" priority="170">
+    <cfRule type="expression" dxfId="212" priority="170">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K101:L101">
-    <cfRule type="expression" dxfId="231" priority="147">
+    <cfRule type="expression" dxfId="211" priority="147">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K99:L99">
-    <cfRule type="expression" dxfId="230" priority="171">
+    <cfRule type="expression" dxfId="210" priority="171">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:E100">
-    <cfRule type="expression" dxfId="229" priority="131">
+    <cfRule type="expression" dxfId="209" priority="131">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="expression" dxfId="228" priority="133">
+    <cfRule type="expression" dxfId="208" priority="133">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:I100">
-    <cfRule type="expression" dxfId="227" priority="130">
+    <cfRule type="expression" dxfId="207" priority="130">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:I100">
-    <cfRule type="expression" dxfId="226" priority="129">
+    <cfRule type="expression" dxfId="206" priority="129">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="expression" dxfId="225" priority="135">
+    <cfRule type="expression" dxfId="205" priority="135">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K100:L100">
-    <cfRule type="expression" dxfId="224" priority="132">
+    <cfRule type="expression" dxfId="204" priority="132">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B101">
-    <cfRule type="expression" dxfId="223" priority="149">
+    <cfRule type="expression" dxfId="203" priority="149">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="expression" dxfId="222" priority="151">
+    <cfRule type="expression" dxfId="202" priority="151">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="expression" dxfId="221" priority="153">
+    <cfRule type="expression" dxfId="201" priority="153">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101:E101">
-    <cfRule type="expression" dxfId="220" priority="152">
+    <cfRule type="expression" dxfId="200" priority="152">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101:I101">
-    <cfRule type="expression" dxfId="219" priority="154">
+    <cfRule type="expression" dxfId="199" priority="154">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J101">
-    <cfRule type="cellIs" dxfId="218" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="157" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="158" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K101:L101">
-    <cfRule type="expression" dxfId="216" priority="155">
+    <cfRule type="expression" dxfId="196" priority="155">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K101:L101">
-    <cfRule type="expression" dxfId="215" priority="156">
+    <cfRule type="expression" dxfId="195" priority="156">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102:D104">
-    <cfRule type="expression" dxfId="214" priority="77">
+    <cfRule type="expression" dxfId="194" priority="77">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="213" priority="79">
+    <cfRule type="expression" dxfId="193" priority="79">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102:D104">
-    <cfRule type="expression" dxfId="212" priority="76">
+    <cfRule type="expression" dxfId="192" priority="76">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102:D104">
-    <cfRule type="expression" dxfId="211" priority="75">
+    <cfRule type="expression" dxfId="191" priority="75">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="expression" dxfId="210" priority="22">
+    <cfRule type="expression" dxfId="190" priority="22">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="209" priority="78">
+    <cfRule type="expression" dxfId="189" priority="78">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="expression" dxfId="208" priority="134">
+    <cfRule type="expression" dxfId="188" priority="134">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="expression" dxfId="207" priority="136">
+    <cfRule type="expression" dxfId="187" priority="136">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="expression" dxfId="206" priority="138">
+    <cfRule type="expression" dxfId="186" priority="138">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:E100">
-    <cfRule type="expression" dxfId="205" priority="137">
+    <cfRule type="expression" dxfId="185" priority="137">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100:I100">
-    <cfRule type="expression" dxfId="204" priority="139">
+    <cfRule type="expression" dxfId="184" priority="139">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J100">
-    <cfRule type="cellIs" dxfId="203" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="143" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K100:L100">
-    <cfRule type="expression" dxfId="201" priority="140">
+    <cfRule type="expression" dxfId="181" priority="140">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K100:L100">
-    <cfRule type="expression" dxfId="200" priority="141">
+    <cfRule type="expression" dxfId="180" priority="141">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:C102 E102">
-    <cfRule type="expression" dxfId="199" priority="116">
+    <cfRule type="expression" dxfId="179" priority="116">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:B102">
-    <cfRule type="expression" dxfId="198" priority="118">
+    <cfRule type="expression" dxfId="178" priority="118">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102:I102">
-    <cfRule type="expression" dxfId="197" priority="115">
+    <cfRule type="expression" dxfId="177" priority="115">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102:I102">
-    <cfRule type="expression" dxfId="196" priority="114">
+    <cfRule type="expression" dxfId="176" priority="114">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="expression" dxfId="195" priority="120">
+    <cfRule type="expression" dxfId="175" priority="120">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K102:L102">
-    <cfRule type="expression" dxfId="194" priority="117">
+    <cfRule type="expression" dxfId="174" priority="117">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="expression" dxfId="193" priority="103">
+    <cfRule type="expression" dxfId="173" priority="103">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:B102">
-    <cfRule type="expression" dxfId="192" priority="119">
+    <cfRule type="expression" dxfId="172" priority="119">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:C104 E104">
-    <cfRule type="expression" dxfId="191" priority="101">
+    <cfRule type="expression" dxfId="171" priority="101">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="expression" dxfId="190" priority="105">
+    <cfRule type="expression" dxfId="170" priority="105">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="expression" dxfId="189" priority="121">
+    <cfRule type="expression" dxfId="169" priority="121">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105:I105">
-    <cfRule type="expression" dxfId="188" priority="61">
+    <cfRule type="expression" dxfId="168" priority="61">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="187" priority="122">
+    <cfRule type="expression" dxfId="167" priority="122">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G104:I104">
-    <cfRule type="expression" dxfId="186" priority="100">
+    <cfRule type="expression" dxfId="166" priority="100">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G104:I104">
-    <cfRule type="expression" dxfId="185" priority="99">
+    <cfRule type="expression" dxfId="165" priority="99">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102:I102">
-    <cfRule type="expression" dxfId="184" priority="124">
+    <cfRule type="expression" dxfId="164" priority="124">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J102">
-    <cfRule type="cellIs" dxfId="183" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="127" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="128" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K102:L102">
-    <cfRule type="expression" dxfId="181" priority="125">
+    <cfRule type="expression" dxfId="161" priority="125">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K104:L104">
-    <cfRule type="expression" dxfId="180" priority="102">
+    <cfRule type="expression" dxfId="160" priority="102">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K102:L102">
-    <cfRule type="expression" dxfId="179" priority="126">
+    <cfRule type="expression" dxfId="159" priority="126">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:C103 E103">
-    <cfRule type="expression" dxfId="178" priority="86">
+    <cfRule type="expression" dxfId="158" priority="86">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="expression" dxfId="177" priority="88">
+    <cfRule type="expression" dxfId="157" priority="88">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G103:I103">
-    <cfRule type="expression" dxfId="176" priority="85">
+    <cfRule type="expression" dxfId="156" priority="85">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G103:I103">
-    <cfRule type="expression" dxfId="175" priority="84">
+    <cfRule type="expression" dxfId="155" priority="84">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="expression" dxfId="174" priority="90">
+    <cfRule type="expression" dxfId="154" priority="90">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K103:L103">
-    <cfRule type="expression" dxfId="173" priority="87">
+    <cfRule type="expression" dxfId="153" priority="87">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="expression" dxfId="172" priority="104">
+    <cfRule type="expression" dxfId="152" priority="104">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="expression" dxfId="171" priority="106">
+    <cfRule type="expression" dxfId="151" priority="106">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="170" priority="107">
+    <cfRule type="expression" dxfId="150" priority="107">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104:I104">
-    <cfRule type="expression" dxfId="169" priority="109">
+    <cfRule type="expression" dxfId="149" priority="109">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J104">
-    <cfRule type="cellIs" dxfId="168" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="112" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="113" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K104:L104">
-    <cfRule type="expression" dxfId="166" priority="110">
+    <cfRule type="expression" dxfId="146" priority="110">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K104:L104">
-    <cfRule type="expression" dxfId="165" priority="111">
+    <cfRule type="expression" dxfId="145" priority="111">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="expression" dxfId="164" priority="89">
+    <cfRule type="expression" dxfId="144" priority="89">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="expression" dxfId="163" priority="91">
+    <cfRule type="expression" dxfId="143" priority="91">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="expression" dxfId="162" priority="92">
+    <cfRule type="expression" dxfId="142" priority="92">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103:I103">
-    <cfRule type="expression" dxfId="161" priority="94">
+    <cfRule type="expression" dxfId="141" priority="94">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J103">
-    <cfRule type="cellIs" dxfId="160" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="98" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K103:L103">
-    <cfRule type="expression" dxfId="158" priority="95">
+    <cfRule type="expression" dxfId="138" priority="95">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K103:L103">
-    <cfRule type="expression" dxfId="157" priority="96">
+    <cfRule type="expression" dxfId="137" priority="96">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="156" priority="81">
+    <cfRule type="expression" dxfId="136" priority="81">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="expression" dxfId="155" priority="83">
+    <cfRule type="expression" dxfId="135" priority="83">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="expression" dxfId="154" priority="80">
+    <cfRule type="expression" dxfId="134" priority="80">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99:F107">
-    <cfRule type="expression" dxfId="153" priority="16">
+    <cfRule type="expression" dxfId="133" priority="16">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="expression" dxfId="152" priority="18">
+    <cfRule type="expression" dxfId="132" priority="18">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99:F107">
-    <cfRule type="expression" dxfId="151" priority="17">
+    <cfRule type="expression" dxfId="131" priority="17">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105:D107">
-    <cfRule type="expression" dxfId="150" priority="26">
+    <cfRule type="expression" dxfId="130" priority="26">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105:D107">
-    <cfRule type="expression" dxfId="149" priority="25">
+    <cfRule type="expression" dxfId="129" priority="25">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105:D107">
-    <cfRule type="expression" dxfId="148" priority="24">
+    <cfRule type="expression" dxfId="128" priority="24">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:C105 E105">
-    <cfRule type="expression" dxfId="147" priority="63">
+    <cfRule type="expression" dxfId="127" priority="63">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B105">
-    <cfRule type="expression" dxfId="146" priority="65">
+    <cfRule type="expression" dxfId="126" priority="65">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105:I105">
-    <cfRule type="expression" dxfId="145" priority="62">
+    <cfRule type="expression" dxfId="125" priority="62">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="expression" dxfId="144" priority="67">
+    <cfRule type="expression" dxfId="124" priority="67">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K105:L105">
-    <cfRule type="expression" dxfId="143" priority="64">
+    <cfRule type="expression" dxfId="123" priority="64">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="expression" dxfId="142" priority="51">
+    <cfRule type="expression" dxfId="122" priority="51">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:B105">
-    <cfRule type="expression" dxfId="141" priority="66">
+    <cfRule type="expression" dxfId="121" priority="66">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:C107 E107">
-    <cfRule type="expression" dxfId="140" priority="49">
+    <cfRule type="expression" dxfId="120" priority="49">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="expression" dxfId="139" priority="53">
+    <cfRule type="expression" dxfId="119" priority="53">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="expression" dxfId="138" priority="68">
+    <cfRule type="expression" dxfId="118" priority="68">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="137" priority="69">
+    <cfRule type="expression" dxfId="117" priority="69">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107:I107">
-    <cfRule type="expression" dxfId="136" priority="48">
+    <cfRule type="expression" dxfId="116" priority="48">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107:I107">
-    <cfRule type="expression" dxfId="135" priority="47">
+    <cfRule type="expression" dxfId="115" priority="47">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105:I105">
-    <cfRule type="expression" dxfId="134" priority="70">
+    <cfRule type="expression" dxfId="114" priority="70">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J105">
-    <cfRule type="cellIs" dxfId="133" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="73" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K105:L105">
-    <cfRule type="expression" dxfId="131" priority="71">
+    <cfRule type="expression" dxfId="111" priority="71">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K107:L107">
-    <cfRule type="expression" dxfId="130" priority="50">
+    <cfRule type="expression" dxfId="110" priority="50">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K105:L105">
-    <cfRule type="expression" dxfId="129" priority="72">
+    <cfRule type="expression" dxfId="109" priority="72">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106:C106 E106">
-    <cfRule type="expression" dxfId="128" priority="35">
+    <cfRule type="expression" dxfId="108" priority="35">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="expression" dxfId="127" priority="37">
+    <cfRule type="expression" dxfId="107" priority="37">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106:I106">
-    <cfRule type="expression" dxfId="126" priority="34">
+    <cfRule type="expression" dxfId="106" priority="34">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106:I106">
-    <cfRule type="expression" dxfId="125" priority="33">
+    <cfRule type="expression" dxfId="105" priority="33">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="expression" dxfId="124" priority="39">
+    <cfRule type="expression" dxfId="104" priority="39">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K106:L106">
-    <cfRule type="expression" dxfId="123" priority="36">
+    <cfRule type="expression" dxfId="103" priority="36">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="expression" dxfId="122" priority="52">
+    <cfRule type="expression" dxfId="102" priority="52">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="expression" dxfId="121" priority="54">
+    <cfRule type="expression" dxfId="101" priority="54">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="120" priority="55">
+    <cfRule type="expression" dxfId="100" priority="55">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107:I107">
-    <cfRule type="expression" dxfId="119" priority="56">
+    <cfRule type="expression" dxfId="99" priority="56">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J107">
-    <cfRule type="cellIs" dxfId="118" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K107:L107">
-    <cfRule type="expression" dxfId="116" priority="57">
+    <cfRule type="expression" dxfId="96" priority="57">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K107:L107">
-    <cfRule type="expression" dxfId="115" priority="58">
+    <cfRule type="expression" dxfId="95" priority="58">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="expression" dxfId="114" priority="38">
+    <cfRule type="expression" dxfId="94" priority="38">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="expression" dxfId="113" priority="40">
+    <cfRule type="expression" dxfId="93" priority="40">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="112" priority="41">
+    <cfRule type="expression" dxfId="92" priority="41">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106:I106">
-    <cfRule type="expression" dxfId="111" priority="42">
+    <cfRule type="expression" dxfId="91" priority="42">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J106">
-    <cfRule type="cellIs" dxfId="110" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K106:L106">
-    <cfRule type="expression" dxfId="108" priority="43">
+    <cfRule type="expression" dxfId="88" priority="43">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K106:L106">
-    <cfRule type="expression" dxfId="107" priority="44">
+    <cfRule type="expression" dxfId="87" priority="44">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="expression" dxfId="106" priority="21">
+    <cfRule type="expression" dxfId="86" priority="21">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="expression" dxfId="105" priority="23">
+    <cfRule type="expression" dxfId="85" priority="23">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="expression" dxfId="104" priority="19">
+    <cfRule type="expression" dxfId="84" priority="19">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="expression" dxfId="103" priority="20">
+    <cfRule type="expression" dxfId="83" priority="20">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B300">
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="82" priority="5">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B300">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="81" priority="6">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:E300">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="80" priority="3">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112:C300">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="79" priority="7">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112:C300">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="78" priority="8">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112:D300">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="77" priority="10">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112:E300">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="76" priority="9">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112:I300">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="75" priority="2">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112:I300">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="74" priority="1">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H112:I300">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="73" priority="11">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J112:J300">
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K112:L300">
-    <cfRule type="expression" dxfId="4" priority="12">
+    <cfRule type="expression" dxfId="70" priority="12">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K112:L300">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="69" priority="4">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K112:L300">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="68" priority="13">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12864,8 +12496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I300"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53:H54"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13864,7 +13496,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B45" s="44" t="b">
         <f>Metadata!A45=A45</f>
@@ -13876,7 +13508,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="13" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>192</v>
@@ -13888,7 +13520,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B46" s="44" t="b">
         <f>Metadata!A46=A46</f>
@@ -13900,7 +13532,7 @@
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="13" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>196</v>
@@ -13912,7 +13544,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B47" s="44" t="b">
         <f>Metadata!A47=A47</f>
@@ -13938,7 +13570,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B48" s="44" t="b">
         <f>Metadata!A48=A48</f>
@@ -13950,7 +13582,7 @@
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="13" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>202</v>
@@ -13964,7 +13596,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B49" s="44" t="b">
         <f>Metadata!A49=A49</f>
@@ -13976,7 +13608,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="13" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>192</v>
@@ -13988,7 +13620,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B50" s="44" t="b">
         <f>Metadata!A50=A50</f>
@@ -14000,7 +13632,7 @@
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
       <c r="F50" s="13" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>196</v>
@@ -14012,7 +13644,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B51" s="44" t="b">
         <f>Metadata!A51=A51</f>
@@ -14038,7 +13670,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B52" s="44" t="b">
         <f>Metadata!A52=A52</f>
@@ -14050,7 +13682,7 @@
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52" s="13" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>202</v>
@@ -14064,7 +13696,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B53" s="44" t="b">
         <f>Metadata!A53=A53</f>
@@ -14076,7 +13708,7 @@
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
       <c r="F53" s="13" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>192</v>
@@ -14088,7 +13720,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B54" s="44" t="b">
         <f>Metadata!A54=A54</f>
@@ -14100,7 +13732,7 @@
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
       <c r="F54" s="13" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>196</v>
@@ -14112,7 +13744,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B55" s="44" t="b">
         <f>Metadata!A55=A55</f>
@@ -14138,7 +13770,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="45" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B56" s="44" t="b">
         <f>Metadata!A56=A56</f>
@@ -14150,7 +13782,7 @@
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
       <c r="F56" s="13" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>202</v>
@@ -17547,91 +17179,91 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C1:E60 A62:I109 A2:I60">
-    <cfRule type="expression" dxfId="102" priority="29">
+    <cfRule type="expression" dxfId="67" priority="29">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:I109 A2:I60">
-    <cfRule type="expression" dxfId="101" priority="30">
+    <cfRule type="expression" dxfId="66" priority="30">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A106 C88:E106">
-    <cfRule type="expression" dxfId="100" priority="32">
+    <cfRule type="expression" dxfId="65" priority="32">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="99" priority="114">
+    <cfRule type="expression" dxfId="64" priority="114">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88:E105">
-    <cfRule type="expression" dxfId="98" priority="93">
+    <cfRule type="expression" dxfId="63" priority="93">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E60 E62:E106">
-    <cfRule type="expression" dxfId="97" priority="28">
+    <cfRule type="expression" dxfId="62" priority="28">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:I1">
-    <cfRule type="expression" dxfId="96" priority="16">
+    <cfRule type="expression" dxfId="61" priority="16">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="95" priority="17">
+    <cfRule type="expression" dxfId="60" priority="17">
       <formula>OR(ROW()=CELL("row"),col()=CELL("col"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="36" priority="9">
+    <cfRule type="expression" dxfId="59" priority="9">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="10">
+    <cfRule type="expression" dxfId="58" priority="10">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="57" priority="11">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:D61 F61:H61">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:D61 F61:H61">
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="55" priority="3">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="54" priority="5">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="6">
+    <cfRule type="expression" dxfId="53" priority="6">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61:I61">
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="52" priority="7">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="51" priority="8">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:I300">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:I300">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17645,8 +17277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I300"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54:I55"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17703,10 +17335,10 @@
         <v>248</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>249</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>250</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="29"/>
@@ -17756,7 +17388,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="23"/>
@@ -17774,7 +17406,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="23"/>
@@ -17888,7 +17520,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
       <c r="G13" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H13" s="30" t="b">
         <f>TRUE()</f>
@@ -17912,7 +17544,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="8"/>
       <c r="G14" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H14" s="30" t="b">
         <f>TRUE()</f>
@@ -17936,7 +17568,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H15" s="30" t="b">
         <f>TRUE()</f>
@@ -17960,7 +17592,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="8"/>
       <c r="G16" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H16" s="30" t="b">
         <f>TRUE()</f>
@@ -17984,7 +17616,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
       <c r="G17" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H17" s="30" t="b">
         <f>TRUE()</f>
@@ -18004,13 +17636,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="16"/>
       <c r="F18" s="8"/>
       <c r="G18" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H18" s="30" t="b">
         <f>FALSE()</f>
@@ -18031,7 +17663,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
       <c r="G19" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H19" s="30" t="b">
         <f>TRUE()</f>
@@ -18051,13 +17683,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="16"/>
       <c r="F20" s="8"/>
       <c r="G20" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="23"/>
@@ -18071,15 +17703,15 @@
         <v>1</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H21" s="30" t="b">
         <f>FALSE()</f>
@@ -18098,11 +17730,11 @@
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
       <c r="E22" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="23"/>
@@ -18116,13 +17748,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H23" s="30"/>
       <c r="I23" s="23"/>
@@ -18168,15 +17800,15 @@
         <v>1</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="23"/>
@@ -18222,13 +17854,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="23"/>
@@ -18278,7 +17910,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H32" s="30" t="b">
         <f>FALSE()</f>
@@ -18302,7 +17934,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="8"/>
       <c r="G33" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H33" s="30" t="b">
         <f>TRUE()</f>
@@ -18326,7 +17958,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="8"/>
       <c r="G34" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H34" s="30" t="b">
         <f>TRUE()</f>
@@ -18350,7 +17982,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="8"/>
       <c r="G35" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H35" s="30" t="b">
         <f>TRUE()</f>
@@ -18370,13 +18002,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="16"/>
       <c r="F36" s="8"/>
       <c r="G36" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="23"/>
@@ -18394,7 +18026,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="8"/>
       <c r="G37" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H37" s="30" t="b">
         <f>TRUE()</f>
@@ -18418,7 +18050,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="8"/>
       <c r="G38" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H38" s="30" t="b">
         <f>TRUE()</f>
@@ -18442,7 +18074,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="8"/>
       <c r="G39" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H39" s="30" t="b">
         <f>TRUE()</f>
@@ -18462,13 +18094,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="16"/>
       <c r="F40" s="8"/>
       <c r="G40" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H40" s="30"/>
       <c r="I40" s="23"/>
@@ -18486,7 +18118,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="8"/>
       <c r="G41" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H41" s="30" t="b">
         <f>TRUE()</f>
@@ -18510,7 +18142,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="8"/>
       <c r="G42" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H42" s="30" t="b">
         <f>TRUE()</f>
@@ -18534,7 +18166,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="8"/>
       <c r="G43" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H43" s="30" t="b">
         <f>TRUE()</f>
@@ -18554,20 +18186,20 @@
         <v>1</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="16"/>
       <c r="F44" s="8"/>
       <c r="G44" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H44" s="30"/>
       <c r="I44" s="23"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B45" s="44" t="b">
         <f>A45=Metadata!A45</f>
@@ -18578,7 +18210,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H45" s="30" t="b">
         <f>TRUE()</f>
@@ -18591,7 +18223,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B46" s="44" t="b">
         <f>A46=Metadata!A46</f>
@@ -18602,7 +18234,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H46" s="30" t="b">
         <f>TRUE()</f>
@@ -18615,7 +18247,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B47" s="44" t="b">
         <f>A47=Metadata!A47</f>
@@ -18626,7 +18258,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H47" s="30" t="b">
         <f>TRUE()</f>
@@ -18639,27 +18271,27 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B48" s="44" t="b">
         <f>A48=Metadata!A48</f>
         <v>1</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H48" s="30"/>
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B49" s="44" t="b">
         <f>A49=Metadata!A49</f>
@@ -18670,7 +18302,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H49" s="30" t="b">
         <f>TRUE()</f>
@@ -18683,7 +18315,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B50" s="44" t="b">
         <f>A50=Metadata!A50</f>
@@ -18694,7 +18326,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H50" s="30" t="b">
         <f>TRUE()</f>
@@ -18707,7 +18339,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B51" s="44" t="b">
         <f>A51=Metadata!A51</f>
@@ -18718,7 +18350,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H51" s="30" t="b">
         <f>TRUE()</f>
@@ -18731,27 +18363,27 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B52" s="44" t="b">
         <f>A52=Metadata!A52</f>
         <v>1</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H52" s="48"/>
       <c r="I52" s="23"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B53" s="44" t="b">
         <f>A53=Metadata!A53</f>
@@ -18762,7 +18394,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H53" s="30" t="b">
         <f>TRUE()</f>
@@ -18775,7 +18407,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B54" s="44" t="b">
         <f>A54=Metadata!A54</f>
@@ -18786,7 +18418,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H54" s="30" t="b">
         <f>TRUE()</f>
@@ -18799,7 +18431,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B55" s="44" t="b">
         <f>A55=Metadata!A55</f>
@@ -18810,7 +18442,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H55" s="30" t="b">
         <f>TRUE()</f>
@@ -18823,20 +18455,20 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="45" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B56" s="44" t="b">
         <f>A56=Metadata!A56</f>
         <v>1</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H56" s="48"/>
       <c r="I56" s="23"/>
@@ -18854,7 +18486,7 @@
       <c r="E57" s="16"/>
       <c r="F57" s="8"/>
       <c r="G57" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H57" s="30" t="b">
         <f>TRUE()</f>
@@ -18878,7 +18510,7 @@
       <c r="E58" s="16"/>
       <c r="F58" s="8"/>
       <c r="G58" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H58" s="30" t="b">
         <f>TRUE()</f>
@@ -18902,7 +18534,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="8"/>
       <c r="G59" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H59" s="30" t="b">
         <f>TRUE()</f>
@@ -18922,13 +18554,13 @@
         <v>1</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="16"/>
       <c r="F60" s="8"/>
       <c r="G60" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H60" s="30"/>
       <c r="I60" s="23"/>
@@ -18946,7 +18578,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="8"/>
       <c r="G61" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H61" s="30" t="b">
         <f>TRUE()</f>
@@ -18970,7 +18602,7 @@
       <c r="E62" s="16"/>
       <c r="F62" s="8"/>
       <c r="G62" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H62" s="30" t="b">
         <f>TRUE()</f>
@@ -18994,7 +18626,7 @@
       <c r="E63" s="16"/>
       <c r="F63" s="8"/>
       <c r="G63" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H63" s="30" t="b">
         <f>TRUE()</f>
@@ -19014,13 +18646,13 @@
         <v>1</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="16"/>
       <c r="F64" s="8"/>
       <c r="G64" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H64" s="30"/>
       <c r="I64" s="23"/>
@@ -19038,7 +18670,7 @@
       <c r="E65" s="47"/>
       <c r="F65" s="8"/>
       <c r="G65" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H65" s="30" t="b">
         <f>TRUE()</f>
@@ -19062,7 +18694,7 @@
       <c r="E66" s="16"/>
       <c r="F66" s="8"/>
       <c r="G66" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H66" s="30" t="b">
         <f>TRUE()</f>
@@ -19086,7 +18718,7 @@
       <c r="E67" s="16"/>
       <c r="F67" s="8"/>
       <c r="G67" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H67" s="30" t="b">
         <f>TRUE()</f>
@@ -19106,13 +18738,13 @@
         <v>1</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D68" s="27"/>
       <c r="E68" s="16"/>
       <c r="F68" s="8"/>
       <c r="G68" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H68" s="30"/>
       <c r="I68" s="23"/>
@@ -19130,7 +18762,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H69" s="30" t="b">
         <f>TRUE()</f>
@@ -19154,7 +18786,7 @@
       <c r="E70" s="26"/>
       <c r="F70" s="8"/>
       <c r="G70" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H70" s="30"/>
       <c r="I70" s="23"/>
@@ -19204,7 +18836,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H73" s="30"/>
       <c r="I73" s="23"/>
@@ -19222,7 +18854,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H74" s="30"/>
       <c r="I74" s="23"/>
@@ -19243,10 +18875,10 @@
         <v>248</v>
       </c>
       <c r="F75" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G75" s="13" t="s">
         <v>249</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>250</v>
       </c>
       <c r="H75" s="30"/>
       <c r="I75" s="23"/>
@@ -19260,13 +18892,13 @@
         <v>1</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H76" s="30"/>
       <c r="I76" s="23"/>
@@ -19280,15 +18912,15 @@
         <v>1</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H77" s="30"/>
       <c r="I77" s="23"/>
@@ -19306,7 +18938,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H78" s="30"/>
       <c r="I78" s="23"/>
@@ -19324,7 +18956,7 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H79" s="30"/>
       <c r="I79" s="23"/>
@@ -19345,10 +18977,10 @@
         <v>248</v>
       </c>
       <c r="F80" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G80" s="13" t="s">
         <v>249</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>250</v>
       </c>
       <c r="H80" s="30"/>
       <c r="I80" s="23"/>
@@ -19362,13 +18994,13 @@
         <v>1</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H81" s="30"/>
       <c r="I81" s="23"/>
@@ -19382,15 +19014,15 @@
         <v>1</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H82" s="30"/>
       <c r="I82" s="23"/>
@@ -19408,7 +19040,7 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H83" s="30"/>
       <c r="I83" s="23"/>
@@ -19426,7 +19058,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H84" s="30"/>
       <c r="I84" s="23"/>
@@ -19447,10 +19079,10 @@
         <v>248</v>
       </c>
       <c r="F85" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G85" s="13" t="s">
         <v>249</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>250</v>
       </c>
       <c r="H85" s="30"/>
       <c r="I85" s="23"/>
@@ -19464,13 +19096,13 @@
         <v>1</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D86" s="27"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H86" s="30"/>
       <c r="I86" s="23"/>
@@ -19484,15 +19116,15 @@
         <v>1</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D87" s="27"/>
       <c r="E87" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H87" s="30"/>
       <c r="I87" s="23"/>
@@ -19526,7 +19158,7 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H89" s="30" t="b">
         <f>TRUE()</f>
@@ -19550,7 +19182,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H90" s="30" t="b">
         <f>TRUE()</f>
@@ -19590,11 +19222,11 @@
       </c>
       <c r="D92" s="27"/>
       <c r="E92" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H92" s="30"/>
       <c r="I92" s="23"/>
@@ -19740,7 +19372,7 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H101" s="30"/>
       <c r="I101" s="23"/>
@@ -19758,7 +19390,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H102" s="30"/>
       <c r="I102" s="23"/>
@@ -19788,17 +19420,17 @@
         <v>1</v>
       </c>
       <c r="C104" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D104" s="27" t="s">
         <v>262</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>263</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H104" s="30"/>
       <c r="I104" s="23"/>
@@ -19816,7 +19448,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H105" s="30"/>
       <c r="I105" s="23"/>
@@ -19834,7 +19466,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H106" s="30" t="b">
         <f>FALSE()</f>
@@ -19902,15 +19534,15 @@
         <v>1</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D110" s="27"/>
       <c r="E110" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F110" s="8"/>
       <c r="G110" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H110" s="30"/>
       <c r="I110" s="23"/>
@@ -19944,7 +19576,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H112" s="30"/>
       <c r="I112" s="23"/>
@@ -20042,7 +19674,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H118" s="30" t="b">
         <f>TRUE()</f>
@@ -20082,7 +19714,7 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H120" s="30"/>
       <c r="I120" s="23"/>
@@ -22074,108 +21706,108 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A2:B94">
-    <cfRule type="expression" dxfId="92" priority="48">
+    <cfRule type="expression" dxfId="48" priority="48">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="49">
+    <cfRule type="expression" dxfId="47" priority="49">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:A86 A88:A94">
-    <cfRule type="expression" dxfId="90" priority="50">
+    <cfRule type="expression" dxfId="46" priority="50">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C88">
-    <cfRule type="expression" dxfId="87" priority="21">
+    <cfRule type="expression" dxfId="45" priority="21">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I2 I56:I81 F64:F68 F69:H74 G75:H81 F75:F94 C64:D94 G82:I93 G94:H94 A1:I1 C3:F63 G56:H68 G3:I53">
-    <cfRule type="expression" dxfId="86" priority="20">
+  <conditionalFormatting sqref="C2:I2 I56:I81 F64:F68 F69:H74 G75:H81 C64:D94 G82:I93 G94:H94 A1:I1 C3:F63 G56:H68 G3:I53 F75:F94">
+    <cfRule type="expression" dxfId="44" priority="20">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I2 I56:I81 F64:F68 F69:H74 G75:H81 F75:F94 C64:D94 G82:I93 G94:H94 C3:F63 G56:H68 G3:I53">
-    <cfRule type="expression" dxfId="85" priority="19">
+  <conditionalFormatting sqref="C2:I2 I56:I81 F64:F68 F69:H74 G75:H81 C64:D94 G82:I93 G94:H94 C3:F63 G56:H68 G3:I53 F75:F94">
+    <cfRule type="expression" dxfId="43" priority="19">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="expression" dxfId="84" priority="22">
+    <cfRule type="expression" dxfId="42" priority="22">
       <formula>OR(ROW()=CELL("row"),col()=CELL("col"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64:E94">
-    <cfRule type="expression" dxfId="83" priority="30">
+    <cfRule type="expression" dxfId="41" priority="30">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="31">
+    <cfRule type="expression" dxfId="40" priority="31">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="expression" dxfId="81" priority="106">
+    <cfRule type="expression" dxfId="39" priority="106">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="107">
+    <cfRule type="expression" dxfId="38" priority="107">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94:I94">
-    <cfRule type="expression" dxfId="78" priority="36">
+    <cfRule type="expression" dxfId="37" priority="36">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="37">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:B300">
-    <cfRule type="expression" dxfId="45" priority="9">
+    <cfRule type="expression" dxfId="35" priority="9">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="10">
+    <cfRule type="expression" dxfId="34" priority="10">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:A300">
-    <cfRule type="expression" dxfId="43" priority="11">
+    <cfRule type="expression" dxfId="33" priority="11">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:H300 C95:D300">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:H300 C95:D300">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95:E300">
-    <cfRule type="expression" dxfId="40" priority="5">
+    <cfRule type="expression" dxfId="30" priority="5">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="29" priority="6">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95:I300">
-    <cfRule type="expression" dxfId="38" priority="7">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="8">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:I55">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:I55">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22189,8 +21821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:H50"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22211,25 +21843,25 @@
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22241,20 +21873,20 @@
         <v>1</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I2" s="31"/>
     </row>
@@ -22267,7 +21899,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -22285,7 +21917,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -22303,20 +21935,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G5" s="13">
         <v>0</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I5" s="13"/>
     </row>
@@ -22329,20 +21961,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G6" s="13">
         <v>0</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I6" s="13"/>
     </row>
@@ -22355,10 +21987,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -22375,10 +22007,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -22395,10 +22027,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -22415,16 +22047,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I10" s="13"/>
     </row>
@@ -22437,16 +22069,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I11" s="13"/>
     </row>
@@ -22459,16 +22091,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I12" s="13"/>
     </row>
@@ -22481,20 +22113,20 @@
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G13" s="13">
         <v>0</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I13" s="13"/>
     </row>
@@ -22507,20 +22139,20 @@
         <v>1</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I14" s="13"/>
     </row>
@@ -22533,18 +22165,18 @@
         <v>1</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I15" s="13"/>
     </row>
@@ -22557,22 +22189,22 @@
         <v>1</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>276</v>
-      </c>
       <c r="G16" s="13">
         <v>0</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I16" s="13"/>
     </row>
@@ -22585,20 +22217,20 @@
         <v>1</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G17" s="13">
         <v>0</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I17" s="13"/>
     </row>
@@ -22611,22 +22243,22 @@
         <v>1</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>276</v>
-      </c>
       <c r="G18" s="13">
         <v>0</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I18" s="13"/>
     </row>
@@ -22639,22 +22271,22 @@
         <v>1</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>276</v>
-      </c>
       <c r="G19" s="13">
         <v>0</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I19" s="13"/>
     </row>
@@ -22667,22 +22299,22 @@
         <v>1</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>276</v>
-      </c>
       <c r="G20" s="13">
         <v>0</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I20" s="13"/>
     </row>
@@ -22695,20 +22327,20 @@
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G21" s="13">
         <v>0</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I21" s="13"/>
     </row>
@@ -22721,20 +22353,20 @@
         <v>1</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G22" s="13">
         <v>0</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I22" s="13"/>
     </row>
@@ -22747,20 +22379,20 @@
         <v>1</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G23" s="13">
         <v>0</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I23" s="13"/>
     </row>
@@ -22773,10 +22405,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -22793,10 +22425,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -22813,20 +22445,20 @@
         <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I26" s="13">
         <v>0</v>
@@ -22841,16 +22473,16 @@
         <v>1</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I27" s="13"/>
     </row>
@@ -22863,16 +22495,16 @@
         <v>1</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I28" s="13"/>
     </row>
@@ -22885,18 +22517,18 @@
         <v>1</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I29" s="13"/>
     </row>
@@ -22909,16 +22541,16 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I30" s="13"/>
     </row>
@@ -22931,16 +22563,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I31" s="13"/>
     </row>
@@ -22953,20 +22585,20 @@
         <v>1</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G32" s="13">
         <v>0</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I32" s="13"/>
     </row>
@@ -22979,20 +22611,20 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G33" s="13">
         <v>0</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I33" s="13"/>
     </row>
@@ -23005,20 +22637,20 @@
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G34" s="13">
         <v>0</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I34" s="13"/>
     </row>
@@ -23031,20 +22663,20 @@
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G35" s="13">
         <v>0</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I35" s="13"/>
     </row>
@@ -23057,20 +22689,20 @@
         <v>1</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G36" s="13">
         <v>0</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I36" s="13"/>
     </row>
@@ -23083,20 +22715,20 @@
         <v>1</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G37" s="13">
         <v>0</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I37" s="13"/>
     </row>
@@ -23109,20 +22741,20 @@
         <v>1</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G38" s="13">
         <v>0</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I38" s="13"/>
     </row>
@@ -23135,20 +22767,20 @@
         <v>1</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G39" s="13">
         <v>0</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I39" s="13"/>
     </row>
@@ -23161,20 +22793,20 @@
         <v>1</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G40" s="13">
         <v>0</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I40" s="13"/>
     </row>
@@ -23187,20 +22819,20 @@
         <v>1</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G41" s="13">
         <v>0</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I41" s="13"/>
     </row>
@@ -23213,20 +22845,20 @@
         <v>1</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G42" s="13">
         <v>12</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I42" s="13"/>
     </row>
@@ -23239,20 +22871,20 @@
         <v>1</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G43" s="13">
         <v>0</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I43" s="13"/>
     </row>
@@ -23265,332 +22897,332 @@
         <v>1</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G44" s="13">
         <v>12</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B45" s="49" t="b">
         <f>A45=Metadata!A45</f>
         <v>1</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G45" s="13">
         <v>0</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B46" s="49" t="b">
         <f>A46=Metadata!A46</f>
         <v>1</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B47" s="49" t="b">
         <f>A47=Metadata!A47</f>
         <v>1</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G47" s="13">
         <v>0</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B48" s="49" t="b">
         <f>A48=Metadata!A48</f>
         <v>1</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G48" s="13">
         <v>0</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="45" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B49" s="49" t="b">
         <f>A49=Metadata!A49</f>
         <v>1</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G49" s="13">
         <v>0</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B50" s="49" t="b">
         <f>A50=Metadata!A50</f>
         <v>1</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G50" s="13">
         <v>0</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B51" s="49" t="b">
         <f>A51=Metadata!A51</f>
         <v>1</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G51" s="13">
         <v>0</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B52" s="49" t="b">
         <f>A52=Metadata!A52</f>
         <v>1</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G52" s="13">
         <v>0</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="45" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B53" s="49" t="b">
         <f>A53=Metadata!A53</f>
         <v>1</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G53" s="13">
         <v>0</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="45" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B54" s="49" t="b">
         <f>A54=Metadata!A54</f>
         <v>1</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G54" s="13">
         <v>12</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="45" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B55" s="49" t="b">
         <f>A55=Metadata!A55</f>
         <v>1</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G55" s="13">
         <v>0</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="45" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B56" s="49" t="b">
         <f>A56=Metadata!A56</f>
         <v>1</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G56" s="13">
         <v>12</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I56" s="13"/>
     </row>
@@ -23603,20 +23235,20 @@
         <v>1</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G57" s="13">
         <v>0</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I57" s="13"/>
     </row>
@@ -23629,20 +23261,20 @@
         <v>1</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G58" s="13">
         <v>0</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I58" s="13"/>
     </row>
@@ -23655,20 +23287,20 @@
         <v>1</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G59" s="13">
         <v>0</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I59" s="13"/>
     </row>
@@ -23681,20 +23313,20 @@
         <v>1</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G60" s="13">
         <v>0</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I60" s="13"/>
     </row>
@@ -23707,20 +23339,20 @@
         <v>1</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G61" s="13">
         <v>0</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I61" s="13"/>
     </row>
@@ -23733,20 +23365,20 @@
         <v>1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G62" s="13">
         <v>0</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I62" s="13"/>
     </row>
@@ -23759,20 +23391,20 @@
         <v>1</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G63" s="13">
         <v>0</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I63" s="13"/>
     </row>
@@ -23785,20 +23417,20 @@
         <v>1</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G64" s="13">
         <v>0</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I64" s="13"/>
     </row>
@@ -23811,20 +23443,20 @@
         <v>1</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G65" s="13">
         <v>0</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I65" s="13"/>
     </row>
@@ -23837,20 +23469,20 @@
         <v>1</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G66" s="13">
         <v>0</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I66" s="13"/>
     </row>
@@ -23863,20 +23495,20 @@
         <v>1</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G67" s="13">
         <v>0</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I67" s="13"/>
     </row>
@@ -23889,20 +23521,20 @@
         <v>1</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G68" s="13">
         <v>12</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I68" s="13"/>
     </row>
@@ -23915,20 +23547,20 @@
         <v>1</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G69" s="13">
         <v>0</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I69" s="13">
         <v>0</v>
@@ -23943,18 +23575,18 @@
         <v>1</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G70" s="13">
         <v>0</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I70" s="13"/>
     </row>
@@ -23967,10 +23599,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
@@ -23987,16 +23619,16 @@
         <v>1</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I72" s="13"/>
     </row>
@@ -24009,20 +23641,20 @@
         <v>1</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G73" s="13">
         <v>0</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I73" s="13"/>
     </row>
@@ -24035,20 +23667,20 @@
         <v>1</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G74" s="13">
         <v>0</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I74" s="13"/>
     </row>
@@ -24061,22 +23693,22 @@
         <v>1</v>
       </c>
       <c r="C75" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F75" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="G75" s="13">
+        <v>0</v>
+      </c>
+      <c r="H75" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="G75" s="13">
-        <v>0</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>277</v>
       </c>
       <c r="I75" s="13"/>
     </row>
@@ -24089,20 +23721,20 @@
         <v>1</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G76" s="13">
         <v>0</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I76" s="13"/>
     </row>
@@ -24115,18 +23747,18 @@
         <v>1</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I77" s="13">
         <v>0</v>
@@ -24141,20 +23773,20 @@
         <v>1</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G78" s="13">
         <v>0</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I78" s="13"/>
     </row>
@@ -24167,20 +23799,20 @@
         <v>1</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G79" s="13">
         <v>0</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I79" s="13"/>
     </row>
@@ -24193,22 +23825,22 @@
         <v>1</v>
       </c>
       <c r="C80" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E80" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="F80" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="G80" s="13">
+        <v>0</v>
+      </c>
+      <c r="H80" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="E80" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="G80" s="13">
-        <v>0</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>277</v>
       </c>
       <c r="I80" s="13"/>
     </row>
@@ -24221,20 +23853,20 @@
         <v>1</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G81" s="13">
         <v>0</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I81" s="13"/>
     </row>
@@ -24247,18 +23879,18 @@
         <v>1</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I82" s="13">
         <v>0</v>
@@ -24273,20 +23905,20 @@
         <v>1</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G83" s="13">
         <v>0</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I83" s="13"/>
     </row>
@@ -24299,20 +23931,20 @@
         <v>1</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G84" s="13">
         <v>0</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I84" s="13"/>
     </row>
@@ -24325,22 +23957,22 @@
         <v>1</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G85" s="13">
         <v>12</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I85" s="13"/>
     </row>
@@ -24353,20 +23985,20 @@
         <v>1</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G86" s="13">
         <v>0</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I86" s="13"/>
     </row>
@@ -24379,18 +24011,18 @@
         <v>1</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I87" s="13"/>
     </row>
@@ -24403,20 +24035,20 @@
         <v>1</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G88" s="13">
         <v>0</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I88" s="13"/>
     </row>
@@ -24429,20 +24061,20 @@
         <v>1</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G89" s="13">
         <v>0</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I89" s="13"/>
     </row>
@@ -24455,20 +24087,20 @@
         <v>1</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G90" s="13">
         <v>0</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I90" s="13"/>
     </row>
@@ -24481,14 +24113,14 @@
         <v>1</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I91" s="13"/>
     </row>
@@ -24501,20 +24133,20 @@
         <v>1</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G92" s="13">
         <v>0</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I92" s="13"/>
     </row>
@@ -24527,10 +24159,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
@@ -24547,18 +24179,18 @@
         <v>1</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G94" s="13"/>
       <c r="H94" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I94" s="13"/>
     </row>
@@ -24571,14 +24203,14 @@
         <v>1</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I95" s="13"/>
     </row>
@@ -24591,7 +24223,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
@@ -24609,10 +24241,10 @@
         <v>1</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
@@ -24629,10 +24261,10 @@
         <v>1</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
@@ -24649,10 +24281,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
@@ -24669,16 +24301,16 @@
         <v>1</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I100" s="13"/>
     </row>
@@ -24691,20 +24323,20 @@
         <v>1</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E101" s="13"/>
       <c r="F101" s="13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G101" s="13">
         <v>0</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I101" s="13"/>
     </row>
@@ -24717,20 +24349,20 @@
         <v>1</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G102" s="13">
         <v>0</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I102" s="13"/>
     </row>
@@ -24743,10 +24375,10 @@
         <v>1</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
@@ -24763,20 +24395,20 @@
         <v>1</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G104" s="13">
         <v>0</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I104" s="13"/>
     </row>
@@ -24789,20 +24421,20 @@
         <v>1</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E105" s="13"/>
       <c r="F105" s="13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G105" s="13">
         <v>0</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I105" s="13">
         <v>1</v>
@@ -24817,20 +24449,20 @@
         <v>1</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G106" s="8">
         <v>0</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I106" s="13"/>
     </row>
@@ -24844,7 +24476,7 @@
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="8"/>
@@ -24861,16 +24493,16 @@
         <v>1</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I108" s="13"/>
     </row>
@@ -24883,10 +24515,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="8"/>
@@ -24903,20 +24535,20 @@
         <v>1</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G110" s="8">
         <v>0</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I110" s="13"/>
     </row>
@@ -24929,16 +24561,16 @@
         <v>1</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I111" s="13"/>
     </row>
@@ -24951,14 +24583,14 @@
         <v>1</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I112" s="13"/>
     </row>
@@ -24971,16 +24603,16 @@
         <v>1</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="13" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I113" s="13"/>
     </row>
@@ -24993,14 +24625,14 @@
         <v>1</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="13"/>
@@ -25015,7 +24647,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
@@ -25033,7 +24665,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
@@ -25051,10 +24683,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="8"/>
@@ -25071,10 +24703,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="8"/>
@@ -25091,10 +24723,10 @@
         <v>1</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="8"/>
@@ -25111,20 +24743,20 @@
         <v>1</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G120" s="8">
         <v>0</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I120" s="13"/>
     </row>
@@ -27115,58 +26747,88 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A2:B107">
-    <cfRule type="expression" dxfId="72" priority="28">
+    <cfRule type="expression" dxfId="24" priority="34">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="29">
+    <cfRule type="expression" dxfId="23" priority="35">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:A86 A88:A107">
-    <cfRule type="expression" dxfId="70" priority="30">
+    <cfRule type="expression" dxfId="22" priority="36">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:I1 C2:I107">
-    <cfRule type="expression" dxfId="65" priority="15">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:I107">
-    <cfRule type="expression" dxfId="64" priority="14">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106:E107">
-    <cfRule type="expression" dxfId="63" priority="16">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B300">
-    <cfRule type="expression" dxfId="51" priority="4">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="5">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:A300">
-    <cfRule type="expression" dxfId="49" priority="6">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C108:I300">
-    <cfRule type="expression" dxfId="48" priority="2">
+  <conditionalFormatting sqref="C109:I109 C108:G108 I108 C112:I112 C110:G111 I110:I111 C114:I300 C113:G113 I113">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C108:I300">
-    <cfRule type="expression" dxfId="47" priority="1">
+  <conditionalFormatting sqref="C109:I109 C108:G108 I108 C112:I112 C110:G111 I110:I111 C114:I300 C113:G113 I113">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108:E300">
-    <cfRule type="expression" dxfId="46" priority="3">
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H108">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>COLUMN()=CELL("col")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H108">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H110:H111">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>COLUMN()=CELL("col")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H110:H111">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ROW()=CELL("row")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H113">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>COLUMN()=CELL("col")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H113">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27196,10 +26858,10 @@
         <v>177</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -27207,7 +26869,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -27216,7 +26878,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C3" s="13"/>
     </row>
@@ -27225,7 +26887,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C4" s="13"/>
     </row>
@@ -27234,7 +26896,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C5" s="13"/>
     </row>
@@ -27243,7 +26905,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C6" s="13"/>
     </row>
@@ -27252,7 +26914,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C7" s="13"/>
     </row>
@@ -27261,7 +26923,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C8" s="13"/>
     </row>
@@ -27270,7 +26932,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C9" s="13"/>
     </row>
@@ -27279,7 +26941,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C10" s="13"/>
     </row>
@@ -27288,7 +26950,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C11" s="13"/>
     </row>
@@ -27297,7 +26959,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C12" s="13"/>
     </row>
@@ -27306,7 +26968,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C13" s="13"/>
     </row>
@@ -27315,7 +26977,7 @@
         <v>39</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C14" s="13"/>
     </row>
@@ -27331,16 +26993,16 @@
         <v>45</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C17" s="13"/>
     </row>
@@ -27356,7 +27018,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C19" s="13"/>
     </row>
@@ -27372,7 +27034,7 @@
         <v>53</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C21" s="13"/>
     </row>
@@ -27381,7 +27043,7 @@
         <v>55</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C22" s="13"/>
     </row>
@@ -27397,7 +27059,7 @@
         <v>59</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C24" s="13"/>
     </row>
@@ -27406,7 +27068,7 @@
         <v>61</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C25" s="13"/>
     </row>
@@ -27415,7 +27077,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C26" s="13"/>
     </row>
@@ -27424,7 +27086,7 @@
         <v>63</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C27" s="13"/>
     </row>
@@ -27433,7 +27095,7 @@
         <v>64</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C28" s="13"/>
     </row>
@@ -27442,7 +27104,7 @@
         <v>65</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C29" s="13"/>
     </row>
@@ -27451,7 +27113,7 @@
         <v>67</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C30" s="13"/>
     </row>
@@ -27460,7 +27122,7 @@
         <v>69</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C31" s="13"/>
     </row>
@@ -27469,7 +27131,7 @@
         <v>70</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C32" s="13"/>
     </row>
@@ -27478,7 +27140,7 @@
         <v>72</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C33" s="13"/>
     </row>
@@ -27487,7 +27149,7 @@
         <v>73</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C34" s="13"/>
     </row>
@@ -27496,7 +27158,7 @@
         <v>75</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C35" s="13"/>
     </row>
@@ -27512,7 +27174,7 @@
         <v>77</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C37" s="13"/>
     </row>
@@ -27521,7 +27183,7 @@
         <v>78</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C38" s="13"/>
     </row>
@@ -27530,7 +27192,7 @@
         <v>79</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C39" s="13"/>
     </row>
@@ -27546,7 +27208,7 @@
         <v>81</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C41" s="13"/>
     </row>
@@ -27555,7 +27217,7 @@
         <v>82</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C42" s="13"/>
     </row>
@@ -27564,7 +27226,7 @@
         <v>83</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C43" s="13"/>
     </row>
@@ -27671,7 +27333,7 @@
         <v>99</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C58" s="13"/>
     </row>
@@ -27680,7 +27342,7 @@
         <v>100</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C59" s="13"/>
     </row>
@@ -27689,7 +27351,7 @@
         <v>101</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C60" s="13"/>
     </row>
@@ -27698,7 +27360,7 @@
         <v>102</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C61" s="13"/>
     </row>
@@ -27707,7 +27369,7 @@
         <v>104</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C62" s="13"/>
     </row>
@@ -27716,7 +27378,7 @@
         <v>105</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C63" s="13"/>
     </row>
@@ -27725,7 +27387,7 @@
         <v>106</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C64" s="13"/>
     </row>
@@ -27734,7 +27396,7 @@
         <v>109</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C65" s="13"/>
     </row>
@@ -27743,7 +27405,7 @@
         <v>111</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C66" s="13"/>
     </row>
@@ -27752,7 +27414,7 @@
         <v>112</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C67" s="13"/>
     </row>
@@ -27761,7 +27423,7 @@
         <v>113</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C68" s="13"/>
     </row>
@@ -27770,7 +27432,7 @@
         <v>114</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C69" s="13"/>
     </row>
@@ -27779,7 +27441,7 @@
         <v>115</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C70" s="13"/>
     </row>
@@ -27788,7 +27450,7 @@
         <v>116</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C71" s="13"/>
     </row>
@@ -27797,7 +27459,7 @@
         <v>117</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C72" s="13"/>
     </row>
@@ -27806,7 +27468,7 @@
         <v>118</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C73" s="13"/>
     </row>
@@ -27815,7 +27477,7 @@
         <v>119</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C74" s="13"/>
     </row>
@@ -27824,7 +27486,7 @@
         <v>120</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C75" s="13"/>
     </row>
@@ -27833,7 +27495,7 @@
         <v>121</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C76" s="13"/>
     </row>
@@ -27842,7 +27504,7 @@
         <v>123</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C77" s="13"/>
     </row>
@@ -27851,7 +27513,7 @@
         <v>126</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C78" s="13"/>
     </row>
@@ -27860,7 +27522,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C79" s="13"/>
     </row>
@@ -27869,7 +27531,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C80" s="13"/>
     </row>
@@ -27878,7 +27540,7 @@
         <v>131</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C81" s="13"/>
     </row>
@@ -27887,7 +27549,7 @@
         <v>132</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C82" s="13"/>
     </row>
@@ -27896,7 +27558,7 @@
         <v>133</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C83" s="13"/>
     </row>
@@ -27905,7 +27567,7 @@
         <v>135</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C84" s="13"/>
     </row>
@@ -27914,7 +27576,7 @@
         <v>136</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C85" s="13"/>
     </row>
@@ -27923,7 +27585,7 @@
         <v>138</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C86" s="13"/>
     </row>
@@ -27932,7 +27594,7 @@
         <v>139</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C87" s="13"/>
     </row>
@@ -27941,7 +27603,7 @@
         <v>140</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C88" s="13"/>
     </row>
@@ -27950,7 +27612,7 @@
         <v>142</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C89" s="13"/>
     </row>
@@ -27959,7 +27621,7 @@
         <v>144</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C90" s="13"/>
     </row>
@@ -27968,7 +27630,7 @@
         <v>146</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C91" s="13"/>
     </row>
@@ -27977,7 +27639,7 @@
         <v>148</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C92" s="13"/>
     </row>
@@ -27986,7 +27648,7 @@
         <v>150</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C93" s="13"/>
     </row>
@@ -27995,7 +27657,7 @@
         <v>152</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C94" s="13"/>
     </row>
@@ -28004,7 +27666,7 @@
         <v>154</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C95" s="13"/>
     </row>
@@ -28013,7 +27675,7 @@
         <v>156</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C96" s="13"/>
     </row>
@@ -28022,7 +27684,7 @@
         <v>158</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C97" s="13"/>
     </row>
@@ -28031,7 +27693,7 @@
         <v>160</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C98" s="13"/>
     </row>
@@ -28040,7 +27702,7 @@
         <v>162</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C99" s="13"/>
     </row>
@@ -28049,7 +27711,7 @@
         <v>110</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C100" s="13"/>
     </row>
@@ -28058,7 +27720,7 @@
         <v>165</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C101" s="13"/>
     </row>
@@ -28067,7 +27729,7 @@
         <v>167</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C102" s="13"/>
     </row>
@@ -28076,7 +27738,7 @@
         <v>168</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C103" s="13"/>
     </row>
@@ -28085,7 +27747,7 @@
         <v>169</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C104" s="13"/>
     </row>
@@ -28094,7 +27756,7 @@
         <v>170</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C105" s="13"/>
     </row>
@@ -28103,7 +27765,7 @@
         <v>171</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C106" s="13"/>
     </row>
@@ -28112,7 +27774,7 @@
         <v>172</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C107" s="13"/>
     </row>
@@ -28121,7 +27783,7 @@
         <v>174</v>
       </c>
       <c r="B108" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C108" s="13"/>
     </row>
@@ -28186,35 +27848,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A108">
-    <cfRule type="expression" dxfId="58" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:A86">
-    <cfRule type="expression" dxfId="56" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A108">
-    <cfRule type="expression" dxfId="55" priority="18">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:A116">
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C80 B81:B108 C81:C110 B106:C116 A109:B111 A112:C121">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>ROW()=CELL("row")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C80 B81:B108 C81:C111 A109:B111 A112:C121 A1:C1">
-    <cfRule type="expression" dxfId="52" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>COLUMN()=CELL("col")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28242,13 +27904,13 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="40">
         <f ca="1">NOW()</f>
-        <v>45647.548630671299</v>
+        <v>45648.542892245372</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">

--- a/src/exso/Files/ReportsInfo.xlsx
+++ b/src/exso/Files/ReportsInfo.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\Admie-Desktop\exso\src\exso\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D085C4CB-78CC-4F24-80A9-234A53793917}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D280DC55-4889-4583-BD0B-E38E2283C19B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4930,10 +4930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:L300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4951,7 +4952,7 @@
     <col min="12" max="12" width="31.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -5199,7 +5200,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
@@ -5232,7 +5233,7 @@
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -5265,7 +5266,7 @@
       <c r="K9" s="14"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
@@ -5298,7 +5299,7 @@
       </c>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
@@ -5331,7 +5332,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
@@ -5747,7 +5748,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
@@ -5782,7 +5783,7 @@
       </c>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>61</v>
       </c>
@@ -5852,7 +5853,7 @@
       <c r="K26" s="14"/>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>63</v>
       </c>
@@ -5885,7 +5886,7 @@
       <c r="K27" s="14"/>
       <c r="L27" s="15"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>64</v>
       </c>
@@ -5918,7 +5919,7 @@
       <c r="K28" s="14"/>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>65</v>
       </c>
@@ -5953,7 +5954,7 @@
       </c>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>67</v>
       </c>
@@ -5986,7 +5987,7 @@
       </c>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>69</v>
       </c>
@@ -6911,7 +6912,7 @@
       <c r="K57" s="14"/>
       <c r="L57" s="15"/>
     </row>
-    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>86</v>
       </c>
@@ -7055,7 +7056,7 @@
       <c r="K61" s="14"/>
       <c r="L61" s="15"/>
     </row>
-    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>91</v>
       </c>
@@ -7199,7 +7200,7 @@
       <c r="K65" s="14"/>
       <c r="L65" s="15"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>95</v>
       </c>
@@ -7374,7 +7375,7 @@
       <c r="K70" s="14"/>
       <c r="L70" s="15"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>100</v>
       </c>
@@ -7405,7 +7406,7 @@
       <c r="K71" s="14"/>
       <c r="L71" s="15"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>101</v>
       </c>
@@ -7935,7 +7936,7 @@
       <c r="K87" s="14"/>
       <c r="L87" s="15"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>121</v>
       </c>
@@ -8042,7 +8043,7 @@
       </c>
       <c r="L90" s="15"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>127</v>
       </c>
@@ -8108,7 +8109,7 @@
       </c>
       <c r="L92" s="15"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>131</v>
       </c>
@@ -8173,7 +8174,7 @@
       <c r="K94" s="14"/>
       <c r="L94" s="15"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>133</v>
       </c>
@@ -8208,7 +8209,7 @@
       </c>
       <c r="L95" s="15"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>135</v>
       </c>
@@ -8243,7 +8244,7 @@
       </c>
       <c r="L96" s="15"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>136</v>
       </c>
@@ -8278,7 +8279,7 @@
       </c>
       <c r="L97" s="15"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>138</v>
       </c>
@@ -8313,7 +8314,7 @@
       </c>
       <c r="L98" s="15"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>139</v>
       </c>
@@ -8348,7 +8349,7 @@
       </c>
       <c r="L99" s="15"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>140</v>
       </c>
@@ -8451,7 +8452,7 @@
       </c>
       <c r="L102" s="15"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>146</v>
       </c>
@@ -8591,7 +8592,7 @@
       </c>
       <c r="L106" s="15"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>154</v>
       </c>
@@ -8626,7 +8627,7 @@
       </c>
       <c r="L107" s="15"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>156</v>
       </c>
@@ -8661,7 +8662,7 @@
       </c>
       <c r="L108" s="15"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>158</v>
       </c>
@@ -8696,7 +8697,7 @@
       </c>
       <c r="L109" s="15"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>160</v>
       </c>
@@ -8731,7 +8732,7 @@
       </c>
       <c r="L110" s="15"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>162</v>
       </c>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="L111" s="15"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>110</v>
       </c>
@@ -8801,7 +8802,7 @@
       </c>
       <c r="L112" s="15"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>165</v>
       </c>
@@ -8836,7 +8837,7 @@
       </c>
       <c r="L113" s="15"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>167</v>
       </c>
@@ -8867,7 +8868,7 @@
       <c r="K114" s="14"/>
       <c r="L114" s="15"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>168</v>
       </c>
@@ -8902,7 +8903,7 @@
       </c>
       <c r="L115" s="15"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>169</v>
       </c>
@@ -8937,7 +8938,7 @@
       </c>
       <c r="L116" s="15"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>170</v>
       </c>
@@ -8972,7 +8973,7 @@
       <c r="K117" s="14"/>
       <c r="L117" s="15"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>171</v>
       </c>
@@ -9007,7 +9008,7 @@
       <c r="K118" s="14"/>
       <c r="L118" s="15"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>172</v>
       </c>
@@ -9044,7 +9045,7 @@
       </c>
       <c r="L119" s="15"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>174</v>
       </c>
@@ -11601,6 +11602,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L120" xr:uid="{D0972C50-907B-4A2C-82F0-ED51F06329AA}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:L120">
       <sortCondition ref="A2:A120"/>
     </sortState>
@@ -12511,10 +12517,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17302,6 +17309,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
@@ -21852,6 +21860,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
@@ -26875,6 +26884,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
@@ -27926,6 +27936,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -27945,7 +27956,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="37">
         <f ca="1">NOW()</f>
-        <v>45651.625863773152</v>
+        <v>45652.11335324074</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
